--- a/data-migration/xlsx_1900-/1907_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1907_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE0A19-1B99-4E19-A998-02505D7DE5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C90F49-ABCD-41FE-942F-5C62BFAD8FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3434,9 +3434,6 @@
     <t>hitzig_hf</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>bachmann_g</t>
   </si>
   <si>
@@ -3507,6 +3504,9 @@
   </si>
   <si>
     <t>gysi_a</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
   </si>
 </sst>
 </file>
@@ -3850,20 +3850,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="H168" sqref="H168"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="36.88671875" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1907</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F1" t="s">
         <v>385</v>
@@ -3889,7 +3889,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1907</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F2" t="s">
         <v>386</v>
@@ -3915,7 +3915,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1907</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F3" t="s">
         <v>387</v>
@@ -3941,7 +3941,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1907</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F4" t="s">
         <v>388</v>
@@ -3967,7 +3967,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1907</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F5" t="s">
         <v>389</v>
@@ -3993,7 +3993,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1907</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F6" t="s">
         <v>390</v>
@@ -4019,7 +4019,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1907</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F7" t="s">
         <v>391</v>
@@ -4045,7 +4045,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1907</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F8" t="s">
         <v>392</v>
@@ -4071,7 +4071,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1907</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F9" t="s">
         <v>393</v>
@@ -4100,7 +4100,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1907</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F10" t="s">
         <v>394</v>
@@ -4129,7 +4129,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1907</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F11" t="s">
         <v>395</v>
@@ -4155,7 +4155,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1907</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F12" t="s">
         <v>396</v>
@@ -4184,7 +4184,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1907</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F13" t="s">
         <v>397</v>
@@ -4210,7 +4210,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1907</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F14" t="s">
         <v>398</v>
@@ -4236,7 +4236,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1907</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F15" t="s">
         <v>399</v>
@@ -4262,7 +4262,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1907</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F16" t="s">
         <v>400</v>
@@ -4288,7 +4288,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1907</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F17" t="s">
         <v>401</v>
@@ -4314,7 +4314,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1907</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F18" t="s">
         <v>402</v>
@@ -4340,7 +4340,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1907</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F19" t="s">
         <v>403</v>
@@ -4366,7 +4366,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1907</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F20" t="s">
         <v>404</v>
@@ -4392,7 +4392,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1907</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F21" t="s">
         <v>405</v>
@@ -4418,7 +4418,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1907</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F22" t="s">
         <v>406</v>
@@ -4444,7 +4444,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1907</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F23" t="s">
         <v>407</v>
@@ -4473,7 +4473,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1907</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F24" t="s">
         <v>408</v>
@@ -4499,7 +4499,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1907</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F25" t="s">
         <v>409</v>
@@ -4525,7 +4525,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1907</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F26" t="s">
         <v>410</v>
@@ -4551,7 +4551,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1907</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F27" t="s">
         <v>411</v>
@@ -4577,7 +4577,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1907</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F28" t="s">
         <v>412</v>
@@ -4603,7 +4603,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1907</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F29" t="s">
         <v>413</v>
@@ -4629,7 +4629,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1907</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F30" t="s">
         <v>414</v>
@@ -4655,7 +4655,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1907</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F31" t="s">
         <v>415</v>
@@ -4681,7 +4681,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1907</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F32" t="s">
         <v>416</v>
@@ -4707,7 +4707,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1907</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F33" t="s">
         <v>417</v>
@@ -4733,7 +4733,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1907</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F34" t="s">
         <v>418</v>
@@ -4753,13 +4753,13 @@
         <v>795</v>
       </c>
       <c r="H34" t="s">
-        <v>1133</v>
+        <v>1157</v>
       </c>
       <c r="I34" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1907</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F35" t="s">
         <v>419</v>
@@ -4785,7 +4785,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1907</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F36" t="s">
         <v>420</v>
@@ -4811,7 +4811,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1907</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F37" t="s">
         <v>421</v>
@@ -4837,7 +4837,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1907</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F38" t="s">
         <v>422</v>
@@ -4863,7 +4863,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1907</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F39" t="s">
         <v>1127</v>
@@ -4889,7 +4889,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1907</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F40" t="s">
         <v>423</v>
@@ -4915,7 +4915,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1907</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F41" t="s">
         <v>424</v>
@@ -4941,7 +4941,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1907</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F42" t="s">
         <v>425</v>
@@ -4967,7 +4967,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1907</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F43" t="s">
         <v>426</v>
@@ -4993,7 +4993,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1907</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F44" t="s">
         <v>427</v>
@@ -5019,7 +5019,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1907</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F45" t="s">
         <v>428</v>
@@ -5045,7 +5045,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1907</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F46" t="s">
         <v>429</v>
@@ -5074,7 +5074,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1907</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F47" t="s">
         <v>430</v>
@@ -5100,7 +5100,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1907</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F48" t="s">
         <v>431</v>
@@ -5126,7 +5126,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1907</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F49" t="s">
         <v>432</v>
@@ -5152,7 +5152,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1907</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F50" t="s">
         <v>433</v>
@@ -5181,7 +5181,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1907</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F51" t="s">
         <v>434</v>
@@ -5207,7 +5207,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1907</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F52" t="s">
         <v>435</v>
@@ -5233,7 +5233,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1907</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F53" t="s">
         <v>436</v>
@@ -5259,7 +5259,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1907</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F54" t="s">
         <v>437</v>
@@ -5285,7 +5285,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1907</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F55" t="s">
         <v>438</v>
@@ -5311,7 +5311,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1907</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F56" t="s">
         <v>439</v>
@@ -5337,7 +5337,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1907</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F57" t="s">
         <v>440</v>
@@ -5363,7 +5363,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1907</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F58" t="s">
         <v>441</v>
@@ -5383,13 +5383,13 @@
         <v>815</v>
       </c>
       <c r="H58" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I58" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1907</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F59" t="s">
         <v>442</v>
@@ -5409,13 +5409,13 @@
         <v>816</v>
       </c>
       <c r="H59" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I59" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1907</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F60" t="s">
         <v>443</v>
@@ -5435,13 +5435,13 @@
         <v>809</v>
       </c>
       <c r="H60" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I60" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1907</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F61" t="s">
         <v>444</v>
@@ -5467,7 +5467,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1907</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F62" t="s">
         <v>445</v>
@@ -5493,7 +5493,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1907</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F63" t="s">
         <v>446</v>
@@ -5519,7 +5519,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1907</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F64" t="s">
         <v>447</v>
@@ -5545,7 +5545,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1907</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F65" t="s">
         <v>448</v>
@@ -5571,7 +5571,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1907</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F66" t="s">
         <v>449</v>
@@ -5597,7 +5597,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1907</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F67" t="s">
         <v>450</v>
@@ -5626,7 +5626,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1907</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F68" t="s">
         <v>451</v>
@@ -5652,7 +5652,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1907</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F69" t="s">
         <v>452</v>
@@ -5678,7 +5678,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1907</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F70" t="s">
         <v>453</v>
@@ -5698,13 +5698,13 @@
         <v>822</v>
       </c>
       <c r="H70" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I70" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1907</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F71" t="s">
         <v>454</v>
@@ -5724,13 +5724,13 @@
         <v>823</v>
       </c>
       <c r="H71" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="I71" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1907</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F72" t="s">
         <v>455</v>
@@ -5756,7 +5756,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1907</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F73" t="s">
         <v>456</v>
@@ -5788,7 +5788,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1907</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F74" t="s">
         <v>457</v>
@@ -5814,7 +5814,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1907</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F75" t="s">
         <v>458</v>
@@ -5846,7 +5846,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1907</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F76" t="s">
         <v>459</v>
@@ -5872,7 +5872,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1907</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F77" t="s">
         <v>460</v>
@@ -5898,7 +5898,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1907</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F78" t="s">
         <v>461</v>
@@ -5924,7 +5924,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1907</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F79" t="s">
         <v>462</v>
@@ -5950,7 +5950,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1907</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F80" t="s">
         <v>463</v>
@@ -5976,7 +5976,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1907</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F81" t="s">
         <v>464</v>
@@ -6002,7 +6002,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1907</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F82" t="s">
         <v>465</v>
@@ -6028,7 +6028,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1907</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F83" t="s">
         <v>466</v>
@@ -6054,7 +6054,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1907</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F84" t="s">
         <v>467</v>
@@ -6080,7 +6080,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1907</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F85" t="s">
         <v>468</v>
@@ -6106,7 +6106,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1907</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F86" t="s">
         <v>469</v>
@@ -6132,7 +6132,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1907</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F87" t="s">
         <v>470</v>
@@ -6158,7 +6158,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1907</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F88" t="s">
         <v>471</v>
@@ -6184,7 +6184,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1907</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F89" t="s">
         <v>472</v>
@@ -6210,7 +6210,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1907</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F90" t="s">
         <v>473</v>
@@ -6236,7 +6236,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1907</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F91" t="s">
         <v>474</v>
@@ -6262,7 +6262,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1907</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F92" t="s">
         <v>475</v>
@@ -6282,13 +6282,13 @@
         <v>771</v>
       </c>
       <c r="H92" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I92" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1907</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F93" t="s">
         <v>476</v>
@@ -6308,7 +6308,7 @@
         <v>840</v>
       </c>
       <c r="H93" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I93" t="s">
         <v>1125</v>
@@ -6317,7 +6317,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1907</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F94" t="s">
         <v>477</v>
@@ -6337,7 +6337,7 @@
         <v>841</v>
       </c>
       <c r="H94" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I94" t="s">
         <v>1125</v>
@@ -6346,7 +6346,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1907</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F95" t="s">
         <v>478</v>
@@ -6372,7 +6372,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1907</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F96" t="s">
         <v>479</v>
@@ -6398,7 +6398,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1907</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F97" t="s">
         <v>480</v>
@@ -6424,7 +6424,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1907</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F98" t="s">
         <v>481</v>
@@ -6450,7 +6450,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1907</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F99" t="s">
         <v>482</v>
@@ -6470,7 +6470,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1907</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F100" t="s">
         <v>483</v>
@@ -6490,7 +6490,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1907</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F101" t="s">
         <v>484</v>
@@ -6510,7 +6510,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1907</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F102" t="s">
         <v>485</v>
@@ -6530,7 +6530,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1907</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F103" t="s">
         <v>486</v>
@@ -6550,7 +6550,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1907</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F104" t="s">
         <v>487</v>
@@ -6576,7 +6576,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1907</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F105" t="s">
         <v>488</v>
@@ -6602,7 +6602,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1907</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F106" t="s">
         <v>489</v>
@@ -6628,7 +6628,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1907</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F107" t="s">
         <v>490</v>
@@ -6654,7 +6654,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1907</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F108" t="s">
         <v>491</v>
@@ -6680,7 +6680,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1907</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F109" t="s">
         <v>492</v>
@@ -6706,7 +6706,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1907</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F110" t="s">
         <v>493</v>
@@ -6732,7 +6732,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1907</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F111" t="s">
         <v>494</v>
@@ -6752,7 +6752,7 @@
         <v>852</v>
       </c>
       <c r="H111" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I111" t="s">
         <v>1125</v>
@@ -6761,7 +6761,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1907</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F112" t="s">
         <v>495</v>
@@ -6787,7 +6787,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1907</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F113" t="s">
         <v>496</v>
@@ -6813,7 +6813,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1907</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F114" t="s">
         <v>497</v>
@@ -6839,7 +6839,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1907</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F115" t="s">
         <v>498</v>
@@ -6865,7 +6865,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1907</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F116" t="s">
         <v>499</v>
@@ -6891,7 +6891,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1907</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F117" t="s">
         <v>500</v>
@@ -6917,7 +6917,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1907</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F118" t="s">
         <v>501</v>
@@ -6943,7 +6943,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1907</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F119" t="s">
         <v>502</v>
@@ -6969,7 +6969,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1907</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F120" t="s">
         <v>503</v>
@@ -6995,7 +6995,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1907</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F121" t="s">
         <v>504</v>
@@ -7015,13 +7015,13 @@
         <v>774</v>
       </c>
       <c r="H121" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I121" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1907</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F122" t="s">
         <v>505</v>
@@ -7047,7 +7047,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1907</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F123" t="s">
         <v>506</v>
@@ -7073,7 +7073,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1907</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F124" t="s">
         <v>507</v>
@@ -7099,7 +7099,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1907</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F125" t="s">
         <v>508</v>
@@ -7125,7 +7125,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1907</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F126" t="s">
         <v>509</v>
@@ -7151,7 +7151,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1907</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F127" t="s">
         <v>510</v>
@@ -7177,7 +7177,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1907</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F128" t="s">
         <v>511</v>
@@ -7203,7 +7203,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1907</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F129" t="s">
         <v>512</v>
@@ -7229,7 +7229,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1907</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F130" t="s">
         <v>513</v>
@@ -7255,7 +7255,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1907</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F131" t="s">
         <v>514</v>
@@ -7281,7 +7281,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1907</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F132" t="s">
         <v>515</v>
@@ -7307,7 +7307,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1907</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F133" t="s">
         <v>516</v>
@@ -7333,7 +7333,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1907</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F134" t="s">
         <v>517</v>
@@ -7359,7 +7359,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1907</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F135" t="s">
         <v>518</v>
@@ -7385,7 +7385,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1907</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F136" t="s">
         <v>519</v>
@@ -7411,7 +7411,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1907</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F137" t="s">
         <v>520</v>
@@ -7437,7 +7437,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1907</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F138" t="s">
         <v>521</v>
@@ -7463,7 +7463,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1907</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F139" t="s">
         <v>522</v>
@@ -7489,7 +7489,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1907</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F140" t="s">
         <v>523</v>
@@ -7515,7 +7515,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1907</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F141" t="s">
         <v>524</v>
@@ -7541,7 +7541,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1907</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F142" t="s">
         <v>525</v>
@@ -7567,7 +7567,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1907</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F143" t="s">
         <v>526</v>
@@ -7593,7 +7593,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1907</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F144" t="s">
         <v>527</v>
@@ -7613,13 +7613,13 @@
         <v>867</v>
       </c>
       <c r="H144" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I144" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1907</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F145" t="s">
         <v>528</v>
@@ -7639,13 +7639,13 @@
         <v>868</v>
       </c>
       <c r="H145" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I145" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1907</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F146" t="s">
         <v>529</v>
@@ -7665,13 +7665,13 @@
         <v>869</v>
       </c>
       <c r="H146" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I146" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1907</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F147" t="s">
         <v>530</v>
@@ -7691,13 +7691,13 @@
         <v>771</v>
       </c>
       <c r="H147" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I147" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1907</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F148" t="s">
         <v>531</v>
@@ -7723,7 +7723,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1907</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F149" t="s">
         <v>532</v>
@@ -7749,7 +7749,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1907</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F150" t="s">
         <v>533</v>
@@ -7775,7 +7775,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1907</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F151" t="s">
         <v>534</v>
@@ -7801,7 +7801,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1907</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F152" t="s">
         <v>535</v>
@@ -7827,7 +7827,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1907</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F153" t="s">
         <v>536</v>
@@ -7853,7 +7853,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1907</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F154" t="s">
         <v>537</v>
@@ -7879,7 +7879,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1907</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F155" t="s">
         <v>538</v>
@@ -7905,7 +7905,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1907</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F156" t="s">
         <v>539</v>
@@ -7931,7 +7931,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1907</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F157" t="s">
         <v>540</v>
@@ -7957,7 +7957,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1907</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F158" t="s">
         <v>541</v>
@@ -7983,7 +7983,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1907</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F159" t="s">
         <v>542</v>
@@ -8009,7 +8009,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1907</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F160" t="s">
         <v>543</v>
@@ -8035,7 +8035,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1907</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F161" t="s">
         <v>544</v>
@@ -8055,13 +8055,13 @@
         <v>765</v>
       </c>
       <c r="H161" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="I161" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1907</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F162" t="s">
         <v>545</v>
@@ -8084,10 +8084,10 @@
         <v>1057</v>
       </c>
       <c r="I162" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1907</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F163" t="s">
         <v>546</v>
@@ -8110,10 +8110,10 @@
         <v>1057</v>
       </c>
       <c r="I163" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1907</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F164" t="s">
         <v>547</v>
@@ -8136,10 +8136,10 @@
         <v>1058</v>
       </c>
       <c r="I164" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1907</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F165" t="s">
         <v>548</v>
@@ -8162,10 +8162,10 @@
         <v>1058</v>
       </c>
       <c r="I165" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1907</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F166" t="s">
         <v>549</v>
@@ -8188,10 +8188,10 @@
         <v>1058</v>
       </c>
       <c r="I166" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1907</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F167" t="s">
         <v>550</v>
@@ -8214,10 +8214,10 @@
         <v>1058</v>
       </c>
       <c r="I167" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1907</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F168" t="s">
         <v>551</v>
@@ -8237,13 +8237,13 @@
         <v>883</v>
       </c>
       <c r="H168" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I168" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1907</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F169" t="s">
         <v>552</v>
@@ -8263,13 +8263,13 @@
         <v>884</v>
       </c>
       <c r="H169" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I169" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1907</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>171</v>
       </c>
       <c r="E170" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F170" t="s">
         <v>553</v>
@@ -8295,7 +8295,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1907</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F171" t="s">
         <v>554</v>
@@ -8321,7 +8321,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1907</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F172" t="s">
         <v>555</v>
@@ -8347,7 +8347,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1907</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F173" t="s">
         <v>556</v>
@@ -8373,7 +8373,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1907</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F174" t="s">
         <v>557</v>
@@ -8399,7 +8399,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1907</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F175" t="s">
         <v>461</v>
@@ -8425,7 +8425,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1907</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F176" t="s">
         <v>558</v>
@@ -8451,7 +8451,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1907</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F177" t="s">
         <v>559</v>
@@ -8477,7 +8477,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1907</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F178" t="s">
         <v>560</v>
@@ -8503,7 +8503,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1907</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F179" t="s">
         <v>561</v>
@@ -8529,7 +8529,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1907</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F180" t="s">
         <v>562</v>
@@ -8555,7 +8555,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1907</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F181" t="s">
         <v>563</v>
@@ -8581,7 +8581,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1907</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F182" t="s">
         <v>564</v>
@@ -8607,7 +8607,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1907</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F183" t="s">
         <v>565</v>
@@ -8633,7 +8633,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1907</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F184" t="s">
         <v>566</v>
@@ -8662,7 +8662,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1907</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F185" t="s">
         <v>567</v>
@@ -8691,7 +8691,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1907</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F186" t="s">
         <v>568</v>
@@ -8720,7 +8720,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1907</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F187" t="s">
         <v>569</v>
@@ -8749,7 +8749,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1907</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F188" t="s">
         <v>570</v>
@@ -8778,7 +8778,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1907</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F189" t="s">
         <v>571</v>
@@ -8804,7 +8804,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1907</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F190" t="s">
         <v>572</v>
@@ -8830,7 +8830,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1907</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F191" t="s">
         <v>573</v>
@@ -8856,7 +8856,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1907</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F192" t="s">
         <v>574</v>
@@ -8882,7 +8882,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1907</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F193" t="s">
         <v>575</v>
@@ -8908,7 +8908,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1907</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F194" t="s">
         <v>478</v>
@@ -8931,10 +8931,10 @@
         <v>1062</v>
       </c>
       <c r="I194" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1907</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F195" t="s">
         <v>576</v>
@@ -8960,7 +8960,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1907</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F196" t="s">
         <v>577</v>
@@ -8986,7 +8986,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1907</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F197" t="s">
         <v>578</v>
@@ -9012,7 +9012,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1907</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F198" t="s">
         <v>579</v>
@@ -9038,7 +9038,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1907</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F199" t="s">
         <v>580</v>
@@ -9064,7 +9064,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1907</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F200" t="s">
         <v>581</v>
@@ -9090,7 +9090,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1907</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F201" t="s">
         <v>582</v>
@@ -9116,7 +9116,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1907</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F202" t="s">
         <v>583</v>
@@ -9142,7 +9142,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1907</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F203" t="s">
         <v>584</v>
@@ -9168,7 +9168,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1907</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F204" t="s">
         <v>585</v>
@@ -9194,7 +9194,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1907</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F205" t="s">
         <v>586</v>
@@ -9220,7 +9220,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1907</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F206" t="s">
         <v>587</v>
@@ -9246,7 +9246,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1907</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F207" t="s">
         <v>588</v>
@@ -9272,7 +9272,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1907</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F208" t="s">
         <v>589</v>
@@ -9298,7 +9298,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1907</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F209" t="s">
         <v>590</v>
@@ -9324,7 +9324,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1907</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F210" t="s">
         <v>591</v>
@@ -9350,7 +9350,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1907</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F211" t="s">
         <v>592</v>
@@ -9376,7 +9376,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1907</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F212" t="s">
         <v>593</v>
@@ -9402,7 +9402,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1907</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F213" t="s">
         <v>594</v>
@@ -9428,7 +9428,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1907</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F214" t="s">
         <v>595</v>
@@ -9454,7 +9454,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1907</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F215" t="s">
         <v>596</v>
@@ -9480,7 +9480,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1907</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F216" t="s">
         <v>597</v>
@@ -9503,10 +9503,10 @@
         <v>1016</v>
       </c>
       <c r="I216" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1907</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F217" t="s">
         <v>598</v>
@@ -9532,7 +9532,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1907</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F218" t="s">
         <v>599</v>
@@ -9558,7 +9558,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1907</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F219" t="s">
         <v>600</v>
@@ -9584,7 +9584,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1907</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F220" t="s">
         <v>601</v>
@@ -9610,7 +9610,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1907</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F221" t="s">
         <v>602</v>
@@ -9636,7 +9636,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1907</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F222" t="s">
         <v>603</v>
@@ -9662,7 +9662,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1907</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F223" t="s">
         <v>604</v>
@@ -9688,7 +9688,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1907</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F224" t="s">
         <v>605</v>
@@ -9714,7 +9714,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1907</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F225" t="s">
         <v>606</v>
@@ -9740,10 +9740,10 @@
         <v>1125</v>
       </c>
       <c r="J225" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1907</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F226" t="s">
         <v>607</v>
@@ -9769,7 +9769,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1907</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F227" t="s">
         <v>608</v>
@@ -9795,7 +9795,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1907</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F228" t="s">
         <v>609</v>
@@ -9821,7 +9821,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1907</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F229" t="s">
         <v>610</v>
@@ -9847,10 +9847,10 @@
         <v>1125</v>
       </c>
       <c r="J229" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1907</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F230" t="s">
         <v>611</v>
@@ -9876,7 +9876,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1907</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F231" t="s">
         <v>612</v>
@@ -9896,13 +9896,13 @@
         <v>926</v>
       </c>
       <c r="H231" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="I231" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1907</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F232" t="s">
         <v>613</v>
@@ -9922,13 +9922,13 @@
         <v>774</v>
       </c>
       <c r="H232" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="I232" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1907</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F233" t="s">
         <v>614</v>
@@ -9954,10 +9954,10 @@
         <v>1125</v>
       </c>
       <c r="J233" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1907</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F234" t="s">
         <v>615</v>
@@ -9983,7 +9983,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1907</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F235" t="s">
         <v>616</v>
@@ -10009,7 +10009,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1907</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F236" t="s">
         <v>617</v>
@@ -10035,7 +10035,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1907</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F237" t="s">
         <v>618</v>
@@ -10061,7 +10061,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1907</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F238" t="s">
         <v>619</v>
@@ -10087,7 +10087,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1907</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F239" t="s">
         <v>620</v>
@@ -10113,7 +10113,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1907</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F240" t="s">
         <v>621</v>
@@ -10139,7 +10139,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1907</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F241" t="s">
         <v>622</v>
@@ -10165,7 +10165,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1907</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F242" t="s">
         <v>623</v>
@@ -10185,13 +10185,13 @@
         <v>932</v>
       </c>
       <c r="H242" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I242" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1907</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F243" t="s">
         <v>624</v>
@@ -10211,13 +10211,13 @@
         <v>933</v>
       </c>
       <c r="H243" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I243" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1907</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F244" t="s">
         <v>625</v>
@@ -10243,7 +10243,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1907</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F245" t="s">
         <v>626</v>
@@ -10269,7 +10269,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1907</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F246" t="s">
         <v>627</v>
@@ -10295,7 +10295,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1907</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F247" t="s">
         <v>628</v>
@@ -10321,7 +10321,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1907</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F248" t="s">
         <v>629</v>
@@ -10347,7 +10347,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1907</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F249" t="s">
         <v>630</v>
@@ -10367,13 +10367,13 @@
         <v>938</v>
       </c>
       <c r="H249" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I249" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1907</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F250" t="s">
         <v>631</v>
@@ -10393,13 +10393,13 @@
         <v>939</v>
       </c>
       <c r="H250" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I250" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1907</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F251" t="s">
         <v>632</v>
@@ -10419,13 +10419,13 @@
         <v>940</v>
       </c>
       <c r="H251" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I251" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1907</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F252" t="s">
         <v>633</v>
@@ -10451,7 +10451,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1907</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F253" t="s">
         <v>634</v>
@@ -10477,7 +10477,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1907</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F254" t="s">
         <v>635</v>
@@ -10506,7 +10506,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1907</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F255" t="s">
         <v>636</v>
@@ -10532,7 +10532,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1907</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F256" t="s">
         <v>637</v>
@@ -10558,7 +10558,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1907</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F257" t="s">
         <v>638</v>
@@ -10584,7 +10584,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1907</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F258" t="s">
         <v>639</v>
@@ -10610,7 +10610,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1907</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F259" t="s">
         <v>640</v>
@@ -10636,7 +10636,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1907</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F260" t="s">
         <v>641</v>
@@ -10665,7 +10665,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1907</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F261" t="s">
         <v>642</v>
@@ -10694,7 +10694,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1907</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F262" t="s">
         <v>643</v>
@@ -10720,7 +10720,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1907</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F263" t="s">
         <v>644</v>
@@ -10746,7 +10746,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1907</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F264" t="s">
         <v>645</v>
@@ -10772,7 +10772,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1907</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>266</v>
       </c>
       <c r="E265" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F265" t="s">
         <v>646</v>
@@ -10801,7 +10801,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1907</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>267</v>
       </c>
       <c r="E266" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F266" t="s">
         <v>647</v>
@@ -10827,7 +10827,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1907</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>268</v>
       </c>
       <c r="E267" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F267" t="s">
         <v>648</v>
@@ -10853,7 +10853,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1907</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>269</v>
       </c>
       <c r="E268" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F268" t="s">
         <v>649</v>
@@ -10879,7 +10879,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1907</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>270</v>
       </c>
       <c r="E269" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F269" t="s">
         <v>650</v>
@@ -10908,7 +10908,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1907</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>271</v>
       </c>
       <c r="E270" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F270" t="s">
         <v>651</v>
@@ -10934,7 +10934,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1907</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>272</v>
       </c>
       <c r="E271" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F271" t="s">
         <v>652</v>
@@ -10960,7 +10960,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1907</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>273</v>
       </c>
       <c r="E272" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F272" t="s">
         <v>653</v>
@@ -10986,7 +10986,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1907</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>274</v>
       </c>
       <c r="E273" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F273" t="s">
         <v>654</v>
@@ -11006,13 +11006,13 @@
         <v>950</v>
       </c>
       <c r="H273" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I273" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1907</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>275</v>
       </c>
       <c r="E274" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F274" t="s">
         <v>655</v>
@@ -11038,7 +11038,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1907</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F275" t="s">
         <v>656</v>
@@ -11064,7 +11064,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1907</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F276" t="s">
         <v>657</v>
@@ -11084,13 +11084,13 @@
         <v>952</v>
       </c>
       <c r="H276" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I276" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1907</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>278</v>
       </c>
       <c r="E277" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F277" t="s">
         <v>658</v>
@@ -11116,7 +11116,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1907</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>279</v>
       </c>
       <c r="E278" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F278" t="s">
         <v>659</v>
@@ -11142,7 +11142,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1907</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>280</v>
       </c>
       <c r="E279" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F279" t="s">
         <v>660</v>
@@ -11168,7 +11168,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1907</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F280" t="s">
         <v>661</v>
@@ -11194,7 +11194,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1907</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>282</v>
       </c>
       <c r="E281" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F281" t="s">
         <v>662</v>
@@ -11223,7 +11223,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1907</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>283</v>
       </c>
       <c r="E282" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F282" t="s">
         <v>663</v>
@@ -11249,7 +11249,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1907</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>284</v>
       </c>
       <c r="E283" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F283" t="s">
         <v>664</v>
@@ -11275,7 +11275,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1907</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>285</v>
       </c>
       <c r="E284" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F284" t="s">
         <v>665</v>
@@ -11301,7 +11301,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1907</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F285" t="s">
         <v>666</v>
@@ -11327,7 +11327,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1907</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>287</v>
       </c>
       <c r="E286" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F286" t="s">
         <v>667</v>
@@ -11347,13 +11347,13 @@
         <v>959</v>
       </c>
       <c r="H286" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I286" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1907</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>288</v>
       </c>
       <c r="E287" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F287" t="s">
         <v>668</v>
@@ -11373,13 +11373,13 @@
         <v>960</v>
       </c>
       <c r="H287" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I287" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1907</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>289</v>
       </c>
       <c r="E288" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F288" t="s">
         <v>669</v>
@@ -11405,7 +11405,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1907</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>290</v>
       </c>
       <c r="E289" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F289" t="s">
         <v>670</v>
@@ -11431,7 +11431,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1907</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>291</v>
       </c>
       <c r="E290" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F290" t="s">
         <v>671</v>
@@ -11457,7 +11457,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1907</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F291" t="s">
         <v>672</v>
@@ -11483,7 +11483,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1907</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F292" t="s">
         <v>673</v>
@@ -11509,7 +11509,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1907</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>294</v>
       </c>
       <c r="E293" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F293" t="s">
         <v>674</v>
@@ -11538,7 +11538,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1907</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>295</v>
       </c>
       <c r="E294" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F294" t="s">
         <v>675</v>
@@ -11564,7 +11564,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1907</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>296</v>
       </c>
       <c r="E295" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F295" t="s">
         <v>676</v>
@@ -11590,7 +11590,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1907</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>297</v>
       </c>
       <c r="E296" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F296" t="s">
         <v>677</v>
@@ -11616,7 +11616,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1907</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>298</v>
       </c>
       <c r="E297" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F297" t="s">
         <v>678</v>
@@ -11645,7 +11645,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1907</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F298" t="s">
         <v>679</v>
@@ -11674,7 +11674,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1907</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F299" t="s">
         <v>680</v>
@@ -11703,7 +11703,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1907</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>301</v>
       </c>
       <c r="E300" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F300" t="s">
         <v>681</v>
@@ -11729,7 +11729,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1907</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>302</v>
       </c>
       <c r="E301" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F301" t="s">
         <v>682</v>
@@ -11755,7 +11755,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1907</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>303</v>
       </c>
       <c r="E302" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F302" t="s">
         <v>683</v>
@@ -11781,7 +11781,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1907</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F303" t="s">
         <v>684</v>
@@ -11807,7 +11807,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1907</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>305</v>
       </c>
       <c r="E304" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F304" t="s">
         <v>685</v>
@@ -11833,7 +11833,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1907</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>306</v>
       </c>
       <c r="E305" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F305" t="s">
         <v>686</v>
@@ -11859,7 +11859,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1907</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>307</v>
       </c>
       <c r="E306" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F306" t="s">
         <v>687</v>
@@ -11888,7 +11888,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1907</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>308</v>
       </c>
       <c r="E307" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F307" t="s">
         <v>688</v>
@@ -11917,7 +11917,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1907</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>309</v>
       </c>
       <c r="E308" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F308" t="s">
         <v>689</v>
@@ -11946,7 +11946,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1907</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>310</v>
       </c>
       <c r="E309" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F309" t="s">
         <v>690</v>
@@ -11972,7 +11972,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1907</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>311</v>
       </c>
       <c r="E310" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F310" t="s">
         <v>691</v>
@@ -11998,7 +11998,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1907</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>312</v>
       </c>
       <c r="E311" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F311" t="s">
         <v>692</v>
@@ -12024,7 +12024,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1907</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>313</v>
       </c>
       <c r="E312" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F312" t="s">
         <v>693</v>
@@ -12050,7 +12050,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1907</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>314</v>
       </c>
       <c r="E313" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F313" t="s">
         <v>694</v>
@@ -12076,7 +12076,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1907</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>315</v>
       </c>
       <c r="E314" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F314" t="s">
         <v>695</v>
@@ -12102,7 +12102,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1907</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>316</v>
       </c>
       <c r="E315" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F315" t="s">
         <v>696</v>
@@ -12128,7 +12128,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1907</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F316" t="s">
         <v>697</v>
@@ -12154,7 +12154,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1907</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F317" t="s">
         <v>698</v>
@@ -12180,7 +12180,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1907</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>319</v>
       </c>
       <c r="E318" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F318" t="s">
         <v>699</v>
@@ -12206,7 +12206,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1907</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>320</v>
       </c>
       <c r="E319" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F319" t="s">
         <v>700</v>
@@ -12232,7 +12232,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1907</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>321</v>
       </c>
       <c r="E320" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F320" t="s">
         <v>701</v>
@@ -12258,7 +12258,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1907</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F321" t="s">
         <v>702</v>
@@ -12284,7 +12284,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1907</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>323</v>
       </c>
       <c r="E322" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F322" t="s">
         <v>703</v>
@@ -12310,7 +12310,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1907</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>324</v>
       </c>
       <c r="E323" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F323" t="s">
         <v>704</v>
@@ -12336,7 +12336,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1907</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>325</v>
       </c>
       <c r="E324" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F324" t="s">
         <v>705</v>
@@ -12362,7 +12362,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1907</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>326</v>
       </c>
       <c r="E325" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F325" t="s">
         <v>706</v>
@@ -12388,7 +12388,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1907</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>327</v>
       </c>
       <c r="E326" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F326" t="s">
         <v>707</v>
@@ -12414,7 +12414,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1907</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>328</v>
       </c>
       <c r="E327" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F327" t="s">
         <v>708</v>
@@ -12440,7 +12440,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1907</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>329</v>
       </c>
       <c r="E328" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F328" t="s">
         <v>709</v>
@@ -12466,7 +12466,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1907</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>330</v>
       </c>
       <c r="E329" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F329" t="s">
         <v>710</v>
@@ -12492,7 +12492,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1907</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>331</v>
       </c>
       <c r="E330" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F330" t="s">
         <v>711</v>
@@ -12518,7 +12518,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1907</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>332</v>
       </c>
       <c r="E331" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F331" t="s">
         <v>712</v>
@@ -12544,7 +12544,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1907</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>333</v>
       </c>
       <c r="E332" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F332" t="s">
         <v>713</v>
@@ -12570,7 +12570,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1907</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>334</v>
       </c>
       <c r="E333" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F333" t="s">
         <v>714</v>
@@ -12596,7 +12596,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1907</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>335</v>
       </c>
       <c r="E334" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F334" t="s">
         <v>715</v>
@@ -12622,7 +12622,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1907</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>336</v>
       </c>
       <c r="E335" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F335" t="s">
         <v>716</v>
@@ -12648,7 +12648,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1907</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>337</v>
       </c>
       <c r="E336" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F336" t="s">
         <v>717</v>
@@ -12674,7 +12674,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1907</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>338</v>
       </c>
       <c r="E337" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F337" t="s">
         <v>718</v>
@@ -12703,7 +12703,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1907</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>339</v>
       </c>
       <c r="E338" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F338" t="s">
         <v>719</v>
@@ -12732,7 +12732,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1907</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>340</v>
       </c>
       <c r="E339" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F339" t="s">
         <v>720</v>
@@ -12761,7 +12761,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1907</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>341</v>
       </c>
       <c r="E340" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F340" t="s">
         <v>721</v>
@@ -12790,7 +12790,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1907</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>342</v>
       </c>
       <c r="E341" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F341" t="s">
         <v>722</v>
@@ -12813,13 +12813,13 @@
         <v>990</v>
       </c>
       <c r="H341" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I341" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1907</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>343</v>
       </c>
       <c r="E342" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F342" t="s">
         <v>723</v>
@@ -12842,13 +12842,13 @@
         <v>771</v>
       </c>
       <c r="H342" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I342" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1907</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>344</v>
       </c>
       <c r="E343" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F343" t="s">
         <v>724</v>
@@ -12871,13 +12871,13 @@
         <v>991</v>
       </c>
       <c r="H343" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I343" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1907</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>345</v>
       </c>
       <c r="E344" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F344" t="s">
         <v>725</v>
@@ -12900,13 +12900,13 @@
         <v>992</v>
       </c>
       <c r="H344" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I344" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1907</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F345" t="s">
         <v>726</v>
@@ -12932,7 +12932,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1907</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>347</v>
       </c>
       <c r="E346" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F346" t="s">
         <v>727</v>
@@ -12958,7 +12958,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1907</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F347" t="s">
         <v>728</v>
@@ -12984,7 +12984,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1907</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>349</v>
       </c>
       <c r="E348" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F348" t="s">
         <v>729</v>
@@ -13010,7 +13010,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1907</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>350</v>
       </c>
       <c r="E349" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F349" t="s">
         <v>730</v>
@@ -13036,7 +13036,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1907</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>351</v>
       </c>
       <c r="E350" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F350" t="s">
         <v>731</v>
@@ -13062,7 +13062,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1907</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>352</v>
       </c>
       <c r="E351" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F351" t="s">
         <v>732</v>
@@ -13088,7 +13088,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1907</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>353</v>
       </c>
       <c r="E352" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F352" t="s">
         <v>733</v>
@@ -13114,7 +13114,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1907</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F353" t="s">
         <v>734</v>
@@ -13134,13 +13134,13 @@
         <v>993</v>
       </c>
       <c r="H353" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I353" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1907</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>355</v>
       </c>
       <c r="E354" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F354" t="s">
         <v>735</v>
@@ -13160,13 +13160,13 @@
         <v>994</v>
       </c>
       <c r="H354" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I354" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1907</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>356</v>
       </c>
       <c r="E355" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F355" t="s">
         <v>736</v>
@@ -13186,13 +13186,13 @@
         <v>774</v>
       </c>
       <c r="H355" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I355" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1907</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>357</v>
       </c>
       <c r="E356" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F356" t="s">
         <v>737</v>
@@ -13212,13 +13212,13 @@
         <v>995</v>
       </c>
       <c r="H356" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I356" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1907</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>358</v>
       </c>
       <c r="E357" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F357" t="s">
         <v>738</v>
@@ -13238,13 +13238,13 @@
         <v>922</v>
       </c>
       <c r="H357" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I357" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1907</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>359</v>
       </c>
       <c r="E358" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F358" t="s">
         <v>739</v>
@@ -13264,13 +13264,13 @@
         <v>996</v>
       </c>
       <c r="H358" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I358" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1907</v>
       </c>
@@ -13281,19 +13281,19 @@
         <v>360</v>
       </c>
       <c r="E359" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F359" t="s">
         <v>740</v>
       </c>
       <c r="H359" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I359" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1907</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>361</v>
       </c>
       <c r="E360" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F360" t="s">
         <v>741</v>
@@ -13313,13 +13313,13 @@
         <v>997</v>
       </c>
       <c r="H360" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I360" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1907</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>362</v>
       </c>
       <c r="E361" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F361" t="s">
         <v>742</v>
@@ -13345,7 +13345,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1907</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>363</v>
       </c>
       <c r="E362" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F362" t="s">
         <v>743</v>
@@ -13371,7 +13371,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1907</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>364</v>
       </c>
       <c r="E363" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F363" t="s">
         <v>744</v>
@@ -13397,7 +13397,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1907</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>365</v>
       </c>
       <c r="E364" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F364" t="s">
         <v>745</v>
@@ -13423,7 +13423,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1907</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>366</v>
       </c>
       <c r="E365" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F365" t="s">
         <v>746</v>
@@ -13449,7 +13449,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1907</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>367</v>
       </c>
       <c r="E366" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F366" t="s">
         <v>747</v>
@@ -13475,7 +13475,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1907</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>368</v>
       </c>
       <c r="E367" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F367" t="s">
         <v>748</v>
@@ -13501,7 +13501,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1907</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>369</v>
       </c>
       <c r="E368" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F368" t="s">
         <v>749</v>
@@ -13527,7 +13527,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1907</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>370</v>
       </c>
       <c r="E369" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F369" t="s">
         <v>750</v>
@@ -13553,7 +13553,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1907</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>371</v>
       </c>
       <c r="E370" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F370" t="s">
         <v>751</v>
@@ -13585,7 +13585,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1907</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>372</v>
       </c>
       <c r="E371" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F371" t="s">
         <v>752</v>
@@ -13611,7 +13611,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1907</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>373</v>
       </c>
       <c r="E372" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F372" t="s">
         <v>753</v>
@@ -13637,7 +13637,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1907</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>374</v>
       </c>
       <c r="E373" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F373" t="s">
         <v>754</v>
@@ -13663,7 +13663,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1907</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>375</v>
       </c>
       <c r="E374" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F374" t="s">
         <v>755</v>
@@ -13689,7 +13689,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1907</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>376</v>
       </c>
       <c r="E375" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F375" t="s">
         <v>756</v>
@@ -13715,7 +13715,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1907</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>377</v>
       </c>
       <c r="E376" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F376" t="s">
         <v>757</v>
@@ -13741,7 +13741,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1907</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>378</v>
       </c>
       <c r="E377" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F377" t="s">
         <v>758</v>
@@ -13767,7 +13767,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1907</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>379</v>
       </c>
       <c r="E378" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F378" t="s">
         <v>759</v>
@@ -13793,7 +13793,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1907</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>380</v>
       </c>
       <c r="E379" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F379" t="s">
         <v>760</v>
@@ -13819,7 +13819,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1907</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>381</v>
       </c>
       <c r="E380" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F380" t="s">
         <v>761</v>
@@ -13845,7 +13845,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1907</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>382</v>
       </c>
       <c r="E381" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F381" t="s">
         <v>762</v>
@@ -13871,7 +13871,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1907</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>383</v>
       </c>
       <c r="E382" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F382" t="s">
         <v>763</v>
@@ -13897,7 +13897,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1907</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>384</v>
       </c>
       <c r="E383" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F383" t="s">
         <v>764</v>

--- a/data-migration/xlsx_1900-/1907_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1907_Sommer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C90F49-ABCD-41FE-942F-5C62BFAD8FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451DFC1D-F8ED-422A-9033-ED51F63C5904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5430" uniqueCount="1159">
   <si>
     <t>Sommer</t>
   </si>
@@ -3173,9 +3173,6 @@
     <t>hottinger_r</t>
   </si>
   <si>
-    <t>kroenlein_u</t>
-  </si>
-  <si>
     <t>schlatter_k</t>
   </si>
   <si>
@@ -3353,9 +3350,6 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>jordan_h</t>
   </si>
   <si>
@@ -3365,12 +3359,6 @@
     <t>martin_r</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>silberschmidt _w</t>
   </si>
   <si>
@@ -3398,9 +3386,6 @@
     <t>dequervain_a</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -3455,9 +3440,6 @@
     <t>schulthess_w</t>
   </si>
   <si>
-    <t>wyss_o</t>
-  </si>
-  <si>
     <t>huber_a</t>
   </si>
   <si>
@@ -3507,6 +3489,27 @@
   </si>
   <si>
     <t>escher_a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meyer-rueegg_h </t>
+  </si>
+  <si>
+    <t>kroenlein_ru</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>wyss-kienast_o</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3546,7 +3549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3850,11 +3853,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="F79" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="33.88671875" customWidth="1"/>
     <col min="6" max="6" width="36.88671875" customWidth="1"/>
@@ -3874,7 +3877,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F1" t="s">
         <v>385</v>
@@ -3886,7 +3889,7 @@
         <v>1012</v>
       </c>
       <c r="I1" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3900,7 +3903,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F2" t="s">
         <v>386</v>
@@ -3912,7 +3915,7 @@
         <v>1012</v>
       </c>
       <c r="I2" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3926,7 +3929,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F3" t="s">
         <v>387</v>
@@ -3938,7 +3941,7 @@
         <v>1012</v>
       </c>
       <c r="I3" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3952,7 +3955,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F4" t="s">
         <v>388</v>
@@ -3964,7 +3967,7 @@
         <v>1013</v>
       </c>
       <c r="I4" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3978,7 +3981,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F5" t="s">
         <v>389</v>
@@ -3990,7 +3993,7 @@
         <v>1014</v>
       </c>
       <c r="I5" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4004,7 +4007,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F6" t="s">
         <v>390</v>
@@ -4016,7 +4019,7 @@
         <v>1014</v>
       </c>
       <c r="I6" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4030,7 +4033,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F7" t="s">
         <v>391</v>
@@ -4042,7 +4045,7 @@
         <v>1015</v>
       </c>
       <c r="I7" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4056,7 +4059,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F8" t="s">
         <v>392</v>
@@ -4065,10 +4068,10 @@
         <v>772</v>
       </c>
       <c r="H8" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="I8" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4082,7 +4085,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F9" t="s">
         <v>393</v>
@@ -4091,13 +4094,13 @@
         <v>773</v>
       </c>
       <c r="H9" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="I9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J9" t="s">
         <v>1125</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4111,7 +4114,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F10" t="s">
         <v>394</v>
@@ -4120,13 +4123,13 @@
         <v>771</v>
       </c>
       <c r="H10" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="I10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J10" t="s">
         <v>1125</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4140,7 +4143,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F11" t="s">
         <v>395</v>
@@ -4152,7 +4155,7 @@
         <v>1015</v>
       </c>
       <c r="I11" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4166,7 +4169,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F12" t="s">
         <v>396</v>
@@ -4175,13 +4178,13 @@
         <v>775</v>
       </c>
       <c r="H12" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="I12" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J12" t="s">
         <v>1125</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4195,7 +4198,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F13" t="s">
         <v>397</v>
@@ -4204,10 +4207,10 @@
         <v>776</v>
       </c>
       <c r="H13" t="s">
-        <v>1110</v>
+        <v>1155</v>
       </c>
       <c r="I13" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4221,7 +4224,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F14" t="s">
         <v>398</v>
@@ -4233,7 +4236,7 @@
         <v>1018</v>
       </c>
       <c r="I14" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4247,7 +4250,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F15" t="s">
         <v>399</v>
@@ -4259,7 +4262,7 @@
         <v>1018</v>
       </c>
       <c r="I15" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4273,7 +4276,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F16" t="s">
         <v>400</v>
@@ -4282,10 +4285,10 @@
         <v>778</v>
       </c>
       <c r="H16" t="s">
-        <v>1110</v>
+        <v>1155</v>
       </c>
       <c r="I16" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4299,7 +4302,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F17" t="s">
         <v>401</v>
@@ -4311,7 +4314,7 @@
         <v>1018</v>
       </c>
       <c r="I17" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4325,7 +4328,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F18" t="s">
         <v>402</v>
@@ -4334,10 +4337,10 @@
         <v>780</v>
       </c>
       <c r="H18" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="I18" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4351,7 +4354,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F19" t="s">
         <v>403</v>
@@ -4363,7 +4366,7 @@
         <v>1018</v>
       </c>
       <c r="I19" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4377,7 +4380,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F20" t="s">
         <v>404</v>
@@ -4389,7 +4392,7 @@
         <v>1012</v>
       </c>
       <c r="I20" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4403,7 +4406,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F21" t="s">
         <v>405</v>
@@ -4415,7 +4418,7 @@
         <v>1014</v>
       </c>
       <c r="I21" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4429,7 +4432,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F22" t="s">
         <v>406</v>
@@ -4438,10 +4441,10 @@
         <v>784</v>
       </c>
       <c r="H22" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="I22" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4455,7 +4458,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F23" t="s">
         <v>407</v>
@@ -4464,13 +4467,13 @@
         <v>785</v>
       </c>
       <c r="H23" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="I23" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J23" t="s">
         <v>1125</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4484,7 +4487,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F24" t="s">
         <v>408</v>
@@ -4493,10 +4496,10 @@
         <v>785</v>
       </c>
       <c r="H24" t="s">
-        <v>1110</v>
+        <v>1155</v>
       </c>
       <c r="I24" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4510,7 +4513,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F25" t="s">
         <v>409</v>
@@ -4519,10 +4522,10 @@
         <v>786</v>
       </c>
       <c r="H25" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="I25" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4536,7 +4539,7 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F26" t="s">
         <v>410</v>
@@ -4548,7 +4551,7 @@
         <v>1018</v>
       </c>
       <c r="I26" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4562,7 +4565,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F27" t="s">
         <v>411</v>
@@ -4574,7 +4577,7 @@
         <v>1019</v>
       </c>
       <c r="I27" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4588,7 +4591,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F28" t="s">
         <v>412</v>
@@ -4600,7 +4603,7 @@
         <v>1020</v>
       </c>
       <c r="I28" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4614,7 +4617,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F29" t="s">
         <v>413</v>
@@ -4623,10 +4626,10 @@
         <v>790</v>
       </c>
       <c r="H29" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="I29" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4640,7 +4643,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F30" t="s">
         <v>414</v>
@@ -4649,10 +4652,10 @@
         <v>791</v>
       </c>
       <c r="H30" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="I30" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4666,7 +4669,7 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F31" t="s">
         <v>415</v>
@@ -4678,7 +4681,7 @@
         <v>1021</v>
       </c>
       <c r="I31" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -4692,7 +4695,7 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F32" t="s">
         <v>416</v>
@@ -4704,7 +4707,7 @@
         <v>1021</v>
       </c>
       <c r="I32" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -4718,7 +4721,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F33" t="s">
         <v>417</v>
@@ -4730,7 +4733,7 @@
         <v>1019</v>
       </c>
       <c r="I33" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -4744,7 +4747,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F34" t="s">
         <v>418</v>
@@ -4753,10 +4756,10 @@
         <v>795</v>
       </c>
       <c r="H34" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="I34" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -4770,7 +4773,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F35" t="s">
         <v>419</v>
@@ -4782,7 +4785,7 @@
         <v>1019</v>
       </c>
       <c r="I35" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -4796,7 +4799,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F36" t="s">
         <v>420</v>
@@ -4808,7 +4811,7 @@
         <v>1022</v>
       </c>
       <c r="I36" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -4822,7 +4825,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F37" t="s">
         <v>421</v>
@@ -4831,10 +4834,10 @@
         <v>798</v>
       </c>
       <c r="H37" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="I37" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -4848,7 +4851,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F38" t="s">
         <v>422</v>
@@ -4860,7 +4863,7 @@
         <v>1023</v>
       </c>
       <c r="I38" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -4874,10 +4877,10 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F39" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="G39" t="s">
         <v>799</v>
@@ -4886,7 +4889,7 @@
         <v>1020</v>
       </c>
       <c r="I39" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -4900,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F40" t="s">
         <v>423</v>
@@ -4912,7 +4915,7 @@
         <v>1020</v>
       </c>
       <c r="I40" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -4926,7 +4929,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F41" t="s">
         <v>424</v>
@@ -4938,7 +4941,7 @@
         <v>1024</v>
       </c>
       <c r="I41" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -4952,7 +4955,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F42" t="s">
         <v>425</v>
@@ -4964,7 +4967,7 @@
         <v>1020</v>
       </c>
       <c r="I42" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -4978,7 +4981,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F43" t="s">
         <v>426</v>
@@ -4990,7 +4993,7 @@
         <v>1023</v>
       </c>
       <c r="I43" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -5004,7 +5007,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F44" t="s">
         <v>427</v>
@@ -5016,7 +5019,7 @@
         <v>1020</v>
       </c>
       <c r="I44" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -5030,7 +5033,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F45" t="s">
         <v>428</v>
@@ -5042,7 +5045,7 @@
         <v>1024</v>
       </c>
       <c r="I45" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -5056,7 +5059,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F46" t="s">
         <v>429</v>
@@ -5065,13 +5068,13 @@
         <v>806</v>
       </c>
       <c r="H46" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="I46" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="J46" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -5085,7 +5088,7 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F47" t="s">
         <v>430</v>
@@ -5097,7 +5100,7 @@
         <v>1025</v>
       </c>
       <c r="I47" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -5111,7 +5114,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F48" t="s">
         <v>431</v>
@@ -5123,7 +5126,7 @@
         <v>1025</v>
       </c>
       <c r="I48" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5137,7 +5140,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F49" t="s">
         <v>432</v>
@@ -5149,7 +5152,7 @@
         <v>1025</v>
       </c>
       <c r="I49" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5163,7 +5166,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F50" t="s">
         <v>433</v>
@@ -5172,13 +5175,13 @@
         <v>810</v>
       </c>
       <c r="H50" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="I50" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="J50" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5192,7 +5195,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F51" t="s">
         <v>434</v>
@@ -5204,7 +5207,7 @@
         <v>1023</v>
       </c>
       <c r="I51" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5218,7 +5221,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F52" t="s">
         <v>435</v>
@@ -5230,7 +5233,7 @@
         <v>1026</v>
       </c>
       <c r="I52" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5244,7 +5247,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F53" t="s">
         <v>436</v>
@@ -5256,7 +5259,7 @@
         <v>1027</v>
       </c>
       <c r="I53" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5270,7 +5273,7 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F54" t="s">
         <v>437</v>
@@ -5282,7 +5285,7 @@
         <v>1027</v>
       </c>
       <c r="I54" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5296,7 +5299,7 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F55" t="s">
         <v>438</v>
@@ -5308,7 +5311,7 @@
         <v>1028</v>
       </c>
       <c r="I55" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5322,7 +5325,7 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F56" t="s">
         <v>439</v>
@@ -5334,7 +5337,7 @@
         <v>1028</v>
       </c>
       <c r="I56" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5348,7 +5351,7 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F57" t="s">
         <v>440</v>
@@ -5360,7 +5363,7 @@
         <v>1028</v>
       </c>
       <c r="I57" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5374,7 +5377,7 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F58" t="s">
         <v>441</v>
@@ -5383,10 +5386,10 @@
         <v>815</v>
       </c>
       <c r="H58" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="I58" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5400,7 +5403,7 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F59" t="s">
         <v>442</v>
@@ -5409,10 +5412,10 @@
         <v>816</v>
       </c>
       <c r="H59" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="I59" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5426,7 +5429,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F60" t="s">
         <v>443</v>
@@ -5435,10 +5438,10 @@
         <v>809</v>
       </c>
       <c r="H60" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="I60" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5452,7 +5455,7 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F61" t="s">
         <v>444</v>
@@ -5461,10 +5464,10 @@
         <v>802</v>
       </c>
       <c r="H61" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="I61" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5478,7 +5481,7 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F62" t="s">
         <v>445</v>
@@ -5487,10 +5490,10 @@
         <v>817</v>
       </c>
       <c r="H62" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="I62" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5504,7 +5507,7 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F63" t="s">
         <v>446</v>
@@ -5516,7 +5519,7 @@
         <v>1021</v>
       </c>
       <c r="I63" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5530,7 +5533,7 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F64" t="s">
         <v>447</v>
@@ -5542,7 +5545,7 @@
         <v>1019</v>
       </c>
       <c r="I64" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -5556,7 +5559,7 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F65" t="s">
         <v>448</v>
@@ -5568,7 +5571,7 @@
         <v>1024</v>
       </c>
       <c r="I65" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -5582,7 +5585,7 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F66" t="s">
         <v>449</v>
@@ -5594,7 +5597,7 @@
         <v>1022</v>
       </c>
       <c r="I66" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -5608,7 +5611,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F67" t="s">
         <v>450</v>
@@ -5617,13 +5620,13 @@
         <v>821</v>
       </c>
       <c r="H67" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="I67" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="J67" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -5637,7 +5640,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F68" t="s">
         <v>451</v>
@@ -5649,7 +5652,7 @@
         <v>1027</v>
       </c>
       <c r="I68" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -5663,7 +5666,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F69" t="s">
         <v>452</v>
@@ -5675,7 +5678,7 @@
         <v>1028</v>
       </c>
       <c r="I69" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -5689,7 +5692,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F70" t="s">
         <v>453</v>
@@ -5698,10 +5701,10 @@
         <v>822</v>
       </c>
       <c r="H70" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="I70" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -5715,7 +5718,7 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F71" t="s">
         <v>454</v>
@@ -5724,10 +5727,10 @@
         <v>823</v>
       </c>
       <c r="H71" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="I71" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -5741,7 +5744,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F72" t="s">
         <v>455</v>
@@ -5753,7 +5756,7 @@
         <v>1031</v>
       </c>
       <c r="I72" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -5767,7 +5770,7 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F73" t="s">
         <v>456</v>
@@ -5779,13 +5782,13 @@
         <v>1031</v>
       </c>
       <c r="I73" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="K73" t="s">
         <v>1032</v>
       </c>
       <c r="L73" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -5799,7 +5802,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F74" t="s">
         <v>457</v>
@@ -5811,7 +5814,7 @@
         <v>1031</v>
       </c>
       <c r="I74" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -5825,7 +5828,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F75" t="s">
         <v>458</v>
@@ -5837,13 +5840,13 @@
         <v>1031</v>
       </c>
       <c r="I75" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="K75" t="s">
         <v>1032</v>
       </c>
       <c r="L75" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -5857,7 +5860,7 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F76" t="s">
         <v>459</v>
@@ -5869,7 +5872,7 @@
         <v>1031</v>
       </c>
       <c r="I76" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -5883,7 +5886,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F77" t="s">
         <v>460</v>
@@ -5895,7 +5898,7 @@
         <v>1032</v>
       </c>
       <c r="I77" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -5909,7 +5912,7 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F78" t="s">
         <v>461</v>
@@ -5921,7 +5924,7 @@
         <v>1032</v>
       </c>
       <c r="I78" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -5935,7 +5938,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F79" t="s">
         <v>462</v>
@@ -5947,7 +5950,7 @@
         <v>1033</v>
       </c>
       <c r="I79" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -5961,7 +5964,7 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F80" t="s">
         <v>463</v>
@@ -5973,7 +5976,7 @@
         <v>1034</v>
       </c>
       <c r="I80" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -5987,7 +5990,7 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F81" t="s">
         <v>464</v>
@@ -5999,7 +6002,7 @@
         <v>1034</v>
       </c>
       <c r="I81" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -6013,7 +6016,7 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F82" t="s">
         <v>465</v>
@@ -6025,7 +6028,7 @@
         <v>1034</v>
       </c>
       <c r="I82" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -6039,7 +6042,7 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F83" t="s">
         <v>466</v>
@@ -6048,10 +6051,10 @@
         <v>833</v>
       </c>
       <c r="H83" t="s">
-        <v>1111</v>
+        <v>1154</v>
       </c>
       <c r="I83" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -6065,7 +6068,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F84" t="s">
         <v>467</v>
@@ -6074,10 +6077,10 @@
         <v>834</v>
       </c>
       <c r="H84" t="s">
-        <v>1111</v>
+        <v>1154</v>
       </c>
       <c r="I84" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -6091,7 +6094,7 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F85" t="s">
         <v>468</v>
@@ -6100,10 +6103,10 @@
         <v>835</v>
       </c>
       <c r="H85" t="s">
-        <v>1111</v>
+        <v>1154</v>
       </c>
       <c r="I85" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -6117,7 +6120,7 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F86" t="s">
         <v>469</v>
@@ -6129,7 +6132,7 @@
         <v>1035</v>
       </c>
       <c r="I86" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -6143,7 +6146,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F87" t="s">
         <v>470</v>
@@ -6155,7 +6158,7 @@
         <v>1035</v>
       </c>
       <c r="I87" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -6169,7 +6172,7 @@
         <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F88" t="s">
         <v>471</v>
@@ -6181,7 +6184,7 @@
         <v>1035</v>
       </c>
       <c r="I88" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -6195,7 +6198,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F89" t="s">
         <v>472</v>
@@ -6207,7 +6210,7 @@
         <v>1036</v>
       </c>
       <c r="I89" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -6221,7 +6224,7 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F90" t="s">
         <v>473</v>
@@ -6233,7 +6236,7 @@
         <v>1036</v>
       </c>
       <c r="I90" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -6247,7 +6250,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F91" t="s">
         <v>474</v>
@@ -6259,7 +6262,7 @@
         <v>1036</v>
       </c>
       <c r="I91" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -6273,7 +6276,7 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F92" t="s">
         <v>475</v>
@@ -6282,10 +6285,10 @@
         <v>771</v>
       </c>
       <c r="H92" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="I92" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -6299,7 +6302,7 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F93" t="s">
         <v>476</v>
@@ -6308,13 +6311,13 @@
         <v>840</v>
       </c>
       <c r="H93" t="s">
-        <v>1140</v>
+        <v>1156</v>
       </c>
       <c r="I93" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J93" t="s">
         <v>1125</v>
-      </c>
-      <c r="J93" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -6328,7 +6331,7 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F94" t="s">
         <v>477</v>
@@ -6337,13 +6340,13 @@
         <v>841</v>
       </c>
       <c r="H94" t="s">
-        <v>1140</v>
+        <v>1156</v>
       </c>
       <c r="I94" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J94" t="s">
         <v>1125</v>
-      </c>
-      <c r="J94" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -6357,7 +6360,7 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F95" t="s">
         <v>478</v>
@@ -6366,10 +6369,10 @@
         <v>842</v>
       </c>
       <c r="H95" t="s">
-        <v>1112</v>
+        <v>1158</v>
       </c>
       <c r="I95" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -6383,7 +6386,7 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F96" t="s">
         <v>479</v>
@@ -6392,10 +6395,10 @@
         <v>771</v>
       </c>
       <c r="H96" t="s">
-        <v>1112</v>
+        <v>1158</v>
       </c>
       <c r="I96" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -6409,7 +6412,7 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F97" t="s">
         <v>480</v>
@@ -6418,10 +6421,10 @@
         <v>765</v>
       </c>
       <c r="H97" t="s">
-        <v>1112</v>
+        <v>1158</v>
       </c>
       <c r="I97" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -6435,7 +6438,7 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F98" t="s">
         <v>481</v>
@@ -6444,10 +6447,10 @@
         <v>841</v>
       </c>
       <c r="H98" t="s">
-        <v>1112</v>
+        <v>1158</v>
       </c>
       <c r="I98" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -6461,7 +6464,7 @@
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F99" t="s">
         <v>482</v>
@@ -6481,7 +6484,7 @@
         <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F100" t="s">
         <v>483</v>
@@ -6501,7 +6504,7 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F101" t="s">
         <v>484</v>
@@ -6521,7 +6524,7 @@
         <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F102" t="s">
         <v>485</v>
@@ -6541,7 +6544,7 @@
         <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F103" t="s">
         <v>486</v>
@@ -6561,7 +6564,7 @@
         <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F104" t="s">
         <v>487</v>
@@ -6570,10 +6573,10 @@
         <v>847</v>
       </c>
       <c r="H104" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="I104" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -6587,7 +6590,7 @@
         <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F105" t="s">
         <v>488</v>
@@ -6596,10 +6599,10 @@
         <v>848</v>
       </c>
       <c r="H105" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="I105" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -6613,7 +6616,7 @@
         <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F106" t="s">
         <v>489</v>
@@ -6625,7 +6628,7 @@
         <v>1037</v>
       </c>
       <c r="I106" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -6639,7 +6642,7 @@
         <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F107" t="s">
         <v>490</v>
@@ -6651,7 +6654,7 @@
         <v>1038</v>
       </c>
       <c r="I107" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -6665,7 +6668,7 @@
         <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F108" t="s">
         <v>491</v>
@@ -6677,7 +6680,7 @@
         <v>1038</v>
       </c>
       <c r="I108" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -6691,7 +6694,7 @@
         <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F109" t="s">
         <v>492</v>
@@ -6703,7 +6706,7 @@
         <v>1038</v>
       </c>
       <c r="I109" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -6717,7 +6720,7 @@
         <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F110" t="s">
         <v>493</v>
@@ -6726,10 +6729,10 @@
         <v>765</v>
       </c>
       <c r="H110" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="I110" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -6743,7 +6746,7 @@
         <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F111" t="s">
         <v>494</v>
@@ -6752,13 +6755,13 @@
         <v>852</v>
       </c>
       <c r="H111" t="s">
-        <v>1140</v>
+        <v>1156</v>
       </c>
       <c r="I111" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J111" t="s">
         <v>1125</v>
-      </c>
-      <c r="J111" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -6772,7 +6775,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F112" t="s">
         <v>495</v>
@@ -6781,10 +6784,10 @@
         <v>765</v>
       </c>
       <c r="H112" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="I112" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -6798,7 +6801,7 @@
         <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F113" t="s">
         <v>496</v>
@@ -6810,7 +6813,7 @@
         <v>1039</v>
       </c>
       <c r="I113" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -6824,7 +6827,7 @@
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F114" t="s">
         <v>497</v>
@@ -6836,7 +6839,7 @@
         <v>1039</v>
       </c>
       <c r="I114" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -6850,7 +6853,7 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F115" t="s">
         <v>498</v>
@@ -6862,7 +6865,7 @@
         <v>1040</v>
       </c>
       <c r="I115" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -6876,7 +6879,7 @@
         <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F116" t="s">
         <v>499</v>
@@ -6888,7 +6891,7 @@
         <v>1040</v>
       </c>
       <c r="I116" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -6902,7 +6905,7 @@
         <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F117" t="s">
         <v>500</v>
@@ -6911,10 +6914,10 @@
         <v>853</v>
       </c>
       <c r="H117" t="s">
-        <v>1111</v>
+        <v>1154</v>
       </c>
       <c r="I117" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -6928,7 +6931,7 @@
         <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F118" t="s">
         <v>501</v>
@@ -6940,7 +6943,7 @@
         <v>1041</v>
       </c>
       <c r="I118" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -6954,7 +6957,7 @@
         <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F119" t="s">
         <v>502</v>
@@ -6966,7 +6969,7 @@
         <v>1041</v>
       </c>
       <c r="I119" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -6980,7 +6983,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F120" t="s">
         <v>503</v>
@@ -6992,7 +6995,7 @@
         <v>1041</v>
       </c>
       <c r="I120" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -7006,7 +7009,7 @@
         <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F121" t="s">
         <v>504</v>
@@ -7015,10 +7018,10 @@
         <v>774</v>
       </c>
       <c r="H121" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="I121" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -7032,7 +7035,7 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F122" t="s">
         <v>505</v>
@@ -7044,7 +7047,7 @@
         <v>1042</v>
       </c>
       <c r="I122" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7058,7 +7061,7 @@
         <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F123" t="s">
         <v>506</v>
@@ -7070,7 +7073,7 @@
         <v>1042</v>
       </c>
       <c r="I123" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7084,7 +7087,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F124" t="s">
         <v>507</v>
@@ -7096,7 +7099,7 @@
         <v>1042</v>
       </c>
       <c r="I124" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7110,7 +7113,7 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F125" t="s">
         <v>508</v>
@@ -7122,7 +7125,7 @@
         <v>1042</v>
       </c>
       <c r="I125" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7136,7 +7139,7 @@
         <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F126" t="s">
         <v>509</v>
@@ -7148,7 +7151,7 @@
         <v>1043</v>
       </c>
       <c r="I126" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7162,7 +7165,7 @@
         <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F127" t="s">
         <v>510</v>
@@ -7174,7 +7177,7 @@
         <v>1030</v>
       </c>
       <c r="I127" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7188,7 +7191,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F128" t="s">
         <v>511</v>
@@ -7200,7 +7203,7 @@
         <v>1044</v>
       </c>
       <c r="I128" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7214,7 +7217,7 @@
         <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F129" t="s">
         <v>512</v>
@@ -7226,7 +7229,7 @@
         <v>1044</v>
       </c>
       <c r="I129" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -7240,7 +7243,7 @@
         <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F130" t="s">
         <v>513</v>
@@ -7252,7 +7255,7 @@
         <v>1045</v>
       </c>
       <c r="I130" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -7266,7 +7269,7 @@
         <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F131" t="s">
         <v>514</v>
@@ -7278,7 +7281,7 @@
         <v>1045</v>
       </c>
       <c r="I131" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -7292,7 +7295,7 @@
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F132" t="s">
         <v>515</v>
@@ -7301,10 +7304,10 @@
         <v>858</v>
       </c>
       <c r="H132" t="s">
-        <v>1046</v>
+        <v>1153</v>
       </c>
       <c r="I132" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -7318,7 +7321,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F133" t="s">
         <v>516</v>
@@ -7327,10 +7330,10 @@
         <v>859</v>
       </c>
       <c r="H133" t="s">
-        <v>1046</v>
+        <v>1153</v>
       </c>
       <c r="I133" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -7344,7 +7347,7 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F134" t="s">
         <v>517</v>
@@ -7353,10 +7356,10 @@
         <v>860</v>
       </c>
       <c r="H134" t="s">
-        <v>1046</v>
+        <v>1153</v>
       </c>
       <c r="I134" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -7370,7 +7373,7 @@
         <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F135" t="s">
         <v>518</v>
@@ -7379,10 +7382,10 @@
         <v>861</v>
       </c>
       <c r="H135" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I135" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -7396,7 +7399,7 @@
         <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F136" t="s">
         <v>519</v>
@@ -7405,10 +7408,10 @@
         <v>862</v>
       </c>
       <c r="H136" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I136" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -7422,7 +7425,7 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F137" t="s">
         <v>520</v>
@@ -7431,10 +7434,10 @@
         <v>863</v>
       </c>
       <c r="H137" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I137" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -7448,7 +7451,7 @@
         <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F138" t="s">
         <v>521</v>
@@ -7457,10 +7460,10 @@
         <v>771</v>
       </c>
       <c r="H138" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I138" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -7474,7 +7477,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F139" t="s">
         <v>522</v>
@@ -7483,10 +7486,10 @@
         <v>765</v>
       </c>
       <c r="H139" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I139" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -7500,7 +7503,7 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F140" t="s">
         <v>523</v>
@@ -7509,10 +7512,10 @@
         <v>771</v>
       </c>
       <c r="H140" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I140" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -7526,7 +7529,7 @@
         <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F141" t="s">
         <v>524</v>
@@ -7535,10 +7538,10 @@
         <v>864</v>
       </c>
       <c r="H141" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I141" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -7552,7 +7555,7 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F142" t="s">
         <v>525</v>
@@ -7561,10 +7564,10 @@
         <v>865</v>
       </c>
       <c r="H142" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I142" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -7578,7 +7581,7 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F143" t="s">
         <v>526</v>
@@ -7587,10 +7590,10 @@
         <v>866</v>
       </c>
       <c r="H143" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I143" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -7604,7 +7607,7 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F144" t="s">
         <v>527</v>
@@ -7613,10 +7616,10 @@
         <v>867</v>
       </c>
       <c r="H144" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="I144" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -7630,7 +7633,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F145" t="s">
         <v>528</v>
@@ -7639,10 +7642,10 @@
         <v>868</v>
       </c>
       <c r="H145" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="I145" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -7656,7 +7659,7 @@
         <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F146" t="s">
         <v>529</v>
@@ -7665,10 +7668,10 @@
         <v>869</v>
       </c>
       <c r="H146" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="I146" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -7682,7 +7685,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F147" t="s">
         <v>530</v>
@@ -7691,10 +7694,10 @@
         <v>771</v>
       </c>
       <c r="H147" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="I147" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -7708,7 +7711,7 @@
         <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F148" t="s">
         <v>531</v>
@@ -7717,10 +7720,10 @@
         <v>870</v>
       </c>
       <c r="H148" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I148" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -7734,7 +7737,7 @@
         <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F149" t="s">
         <v>532</v>
@@ -7743,10 +7746,10 @@
         <v>871</v>
       </c>
       <c r="H149" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I149" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -7760,7 +7763,7 @@
         <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F150" t="s">
         <v>533</v>
@@ -7769,10 +7772,10 @@
         <v>784</v>
       </c>
       <c r="H150" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I150" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -7786,7 +7789,7 @@
         <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F151" t="s">
         <v>534</v>
@@ -7795,10 +7798,10 @@
         <v>872</v>
       </c>
       <c r="H151" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I151" t="s">
         <v>1121</v>
-      </c>
-      <c r="I151" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -7812,7 +7815,7 @@
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F152" t="s">
         <v>535</v>
@@ -7821,10 +7824,10 @@
         <v>765</v>
       </c>
       <c r="H152" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I152" t="s">
         <v>1121</v>
-      </c>
-      <c r="I152" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -7838,7 +7841,7 @@
         <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F153" t="s">
         <v>536</v>
@@ -7847,10 +7850,10 @@
         <v>873</v>
       </c>
       <c r="H153" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="I153" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -7864,7 +7867,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F154" t="s">
         <v>537</v>
@@ -7873,10 +7876,10 @@
         <v>874</v>
       </c>
       <c r="H154" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I154" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -7890,7 +7893,7 @@
         <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F155" t="s">
         <v>538</v>
@@ -7899,10 +7902,10 @@
         <v>765</v>
       </c>
       <c r="H155" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I155" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -7916,7 +7919,7 @@
         <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F156" t="s">
         <v>539</v>
@@ -7925,10 +7928,10 @@
         <v>765</v>
       </c>
       <c r="H156" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I156" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -7942,7 +7945,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F157" t="s">
         <v>540</v>
@@ -7951,10 +7954,10 @@
         <v>875</v>
       </c>
       <c r="H157" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I157" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -7968,7 +7971,7 @@
         <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F158" t="s">
         <v>541</v>
@@ -7977,10 +7980,10 @@
         <v>876</v>
       </c>
       <c r="H158" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I158" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -7994,7 +7997,7 @@
         <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F159" t="s">
         <v>542</v>
@@ -8003,10 +8006,10 @@
         <v>828</v>
       </c>
       <c r="H159" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I159" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8020,7 +8023,7 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F160" t="s">
         <v>543</v>
@@ -8029,10 +8032,10 @@
         <v>877</v>
       </c>
       <c r="H160" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I160" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8046,7 +8049,7 @@
         <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F161" t="s">
         <v>544</v>
@@ -8055,10 +8058,10 @@
         <v>765</v>
       </c>
       <c r="H161" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="I161" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8072,7 +8075,7 @@
         <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F162" t="s">
         <v>545</v>
@@ -8081,10 +8084,10 @@
         <v>878</v>
       </c>
       <c r="H162" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I162" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8098,7 +8101,7 @@
         <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F163" t="s">
         <v>546</v>
@@ -8107,10 +8110,10 @@
         <v>879</v>
       </c>
       <c r="H163" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I163" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8124,7 +8127,7 @@
         <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F164" t="s">
         <v>547</v>
@@ -8133,10 +8136,10 @@
         <v>797</v>
       </c>
       <c r="H164" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I164" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8150,7 +8153,7 @@
         <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F165" t="s">
         <v>548</v>
@@ -8159,10 +8162,10 @@
         <v>880</v>
       </c>
       <c r="H165" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I165" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8176,7 +8179,7 @@
         <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F166" t="s">
         <v>549</v>
@@ -8185,10 +8188,10 @@
         <v>881</v>
       </c>
       <c r="H166" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I166" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8202,7 +8205,7 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F167" t="s">
         <v>550</v>
@@ -8211,10 +8214,10 @@
         <v>882</v>
       </c>
       <c r="H167" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I167" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8228,7 +8231,7 @@
         <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F168" t="s">
         <v>551</v>
@@ -8237,10 +8240,10 @@
         <v>883</v>
       </c>
       <c r="H168" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="I168" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -8254,7 +8257,7 @@
         <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F169" t="s">
         <v>552</v>
@@ -8263,10 +8266,10 @@
         <v>884</v>
       </c>
       <c r="H169" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="I169" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -8280,7 +8283,7 @@
         <v>171</v>
       </c>
       <c r="E170" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F170" t="s">
         <v>553</v>
@@ -8289,10 +8292,10 @@
         <v>885</v>
       </c>
       <c r="H170" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I170" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -8306,7 +8309,7 @@
         <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F171" t="s">
         <v>554</v>
@@ -8315,10 +8318,10 @@
         <v>765</v>
       </c>
       <c r="H171" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I171" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -8332,7 +8335,7 @@
         <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F172" t="s">
         <v>555</v>
@@ -8341,10 +8344,10 @@
         <v>765</v>
       </c>
       <c r="H172" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I172" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -8358,7 +8361,7 @@
         <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F173" t="s">
         <v>556</v>
@@ -8367,10 +8370,10 @@
         <v>886</v>
       </c>
       <c r="H173" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I173" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -8384,7 +8387,7 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F174" t="s">
         <v>557</v>
@@ -8393,10 +8396,10 @@
         <v>887</v>
       </c>
       <c r="H174" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I174" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -8410,7 +8413,7 @@
         <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F175" t="s">
         <v>461</v>
@@ -8419,10 +8422,10 @@
         <v>862</v>
       </c>
       <c r="H175" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I175" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -8436,7 +8439,7 @@
         <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F176" t="s">
         <v>558</v>
@@ -8445,10 +8448,10 @@
         <v>888</v>
       </c>
       <c r="H176" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I176" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -8462,7 +8465,7 @@
         <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F177" t="s">
         <v>559</v>
@@ -8471,10 +8474,10 @@
         <v>889</v>
       </c>
       <c r="H177" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I177" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -8488,7 +8491,7 @@
         <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F178" t="s">
         <v>560</v>
@@ -8497,10 +8500,10 @@
         <v>890</v>
       </c>
       <c r="H178" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I178" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -8514,7 +8517,7 @@
         <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F179" t="s">
         <v>561</v>
@@ -8523,10 +8526,10 @@
         <v>891</v>
       </c>
       <c r="H179" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I179" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8540,7 +8543,7 @@
         <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F180" t="s">
         <v>562</v>
@@ -8549,10 +8552,10 @@
         <v>892</v>
       </c>
       <c r="H180" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I180" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8566,7 +8569,7 @@
         <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F181" t="s">
         <v>563</v>
@@ -8575,10 +8578,10 @@
         <v>893</v>
       </c>
       <c r="H181" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I181" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -8592,7 +8595,7 @@
         <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F182" t="s">
         <v>564</v>
@@ -8601,10 +8604,10 @@
         <v>894</v>
       </c>
       <c r="H182" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I182" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -8618,7 +8621,7 @@
         <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F183" t="s">
         <v>565</v>
@@ -8627,10 +8630,10 @@
         <v>895</v>
       </c>
       <c r="H183" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I183" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -8644,7 +8647,7 @@
         <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F184" t="s">
         <v>566</v>
@@ -8653,13 +8656,13 @@
         <v>896</v>
       </c>
       <c r="H184" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="I184" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J184" t="s">
         <v>1125</v>
-      </c>
-      <c r="J184" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -8673,7 +8676,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F185" t="s">
         <v>567</v>
@@ -8682,13 +8685,13 @@
         <v>897</v>
       </c>
       <c r="H185" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="I185" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J185" t="s">
         <v>1125</v>
-      </c>
-      <c r="J185" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -8702,7 +8705,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F186" t="s">
         <v>568</v>
@@ -8711,13 +8714,13 @@
         <v>898</v>
       </c>
       <c r="H186" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="I186" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J186" t="s">
         <v>1125</v>
-      </c>
-      <c r="J186" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -8731,7 +8734,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F187" t="s">
         <v>569</v>
@@ -8740,13 +8743,13 @@
         <v>899</v>
       </c>
       <c r="H187" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="I187" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J187" t="s">
         <v>1125</v>
-      </c>
-      <c r="J187" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -8760,7 +8763,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F188" t="s">
         <v>570</v>
@@ -8769,13 +8772,13 @@
         <v>900</v>
       </c>
       <c r="H188" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="I188" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J188" t="s">
         <v>1125</v>
-      </c>
-      <c r="J188" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -8789,7 +8792,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F189" t="s">
         <v>571</v>
@@ -8798,10 +8801,10 @@
         <v>901</v>
       </c>
       <c r="H189" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I189" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -8815,7 +8818,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F190" t="s">
         <v>572</v>
@@ -8824,10 +8827,10 @@
         <v>902</v>
       </c>
       <c r="H190" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I190" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -8841,7 +8844,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F191" t="s">
         <v>573</v>
@@ -8850,10 +8853,10 @@
         <v>828</v>
       </c>
       <c r="H191" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I191" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -8867,7 +8870,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F192" t="s">
         <v>574</v>
@@ -8876,10 +8879,10 @@
         <v>903</v>
       </c>
       <c r="H192" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I192" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -8893,7 +8896,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F193" t="s">
         <v>575</v>
@@ -8902,10 +8905,10 @@
         <v>828</v>
       </c>
       <c r="H193" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I193" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -8919,7 +8922,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F194" t="s">
         <v>478</v>
@@ -8928,10 +8931,10 @@
         <v>828</v>
       </c>
       <c r="H194" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I194" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -8945,7 +8948,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F195" t="s">
         <v>576</v>
@@ -8954,10 +8957,10 @@
         <v>904</v>
       </c>
       <c r="H195" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I195" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -8971,7 +8974,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F196" t="s">
         <v>577</v>
@@ -8980,10 +8983,10 @@
         <v>905</v>
       </c>
       <c r="H196" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I196" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -8997,7 +9000,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F197" t="s">
         <v>578</v>
@@ -9006,10 +9009,10 @@
         <v>771</v>
       </c>
       <c r="H197" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I197" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -9023,7 +9026,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F198" t="s">
         <v>579</v>
@@ -9032,10 +9035,10 @@
         <v>771</v>
       </c>
       <c r="H198" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I198" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -9049,7 +9052,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F199" t="s">
         <v>580</v>
@@ -9058,10 +9061,10 @@
         <v>765</v>
       </c>
       <c r="H199" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I199" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -9075,7 +9078,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F200" t="s">
         <v>581</v>
@@ -9084,10 +9087,10 @@
         <v>906</v>
       </c>
       <c r="H200" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I200" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -9101,7 +9104,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F201" t="s">
         <v>582</v>
@@ -9110,10 +9113,10 @@
         <v>907</v>
       </c>
       <c r="H201" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I201" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -9127,7 +9130,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F202" t="s">
         <v>583</v>
@@ -9136,10 +9139,10 @@
         <v>908</v>
       </c>
       <c r="H202" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I202" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -9153,7 +9156,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F203" t="s">
         <v>584</v>
@@ -9162,10 +9165,10 @@
         <v>909</v>
       </c>
       <c r="H203" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I203" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -9179,7 +9182,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F204" t="s">
         <v>585</v>
@@ -9188,10 +9191,10 @@
         <v>910</v>
       </c>
       <c r="H204" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I204" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -9205,7 +9208,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F205" t="s">
         <v>586</v>
@@ -9214,10 +9217,10 @@
         <v>911</v>
       </c>
       <c r="H205" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I205" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -9231,7 +9234,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F206" t="s">
         <v>587</v>
@@ -9240,10 +9243,10 @@
         <v>912</v>
       </c>
       <c r="H206" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I206" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -9257,7 +9260,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F207" t="s">
         <v>588</v>
@@ -9266,10 +9269,10 @@
         <v>913</v>
       </c>
       <c r="H207" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I207" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -9283,7 +9286,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F208" t="s">
         <v>589</v>
@@ -9292,10 +9295,10 @@
         <v>914</v>
       </c>
       <c r="H208" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I208" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9309,7 +9312,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F209" t="s">
         <v>590</v>
@@ -9318,10 +9321,10 @@
         <v>915</v>
       </c>
       <c r="H209" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I209" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -9335,7 +9338,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F210" t="s">
         <v>591</v>
@@ -9344,10 +9347,10 @@
         <v>916</v>
       </c>
       <c r="H210" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I210" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -9361,7 +9364,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F211" t="s">
         <v>592</v>
@@ -9370,10 +9373,10 @@
         <v>917</v>
       </c>
       <c r="H211" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I211" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -9387,7 +9390,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F212" t="s">
         <v>593</v>
@@ -9396,10 +9399,10 @@
         <v>918</v>
       </c>
       <c r="H212" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I212" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -9413,7 +9416,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F213" t="s">
         <v>594</v>
@@ -9422,10 +9425,10 @@
         <v>919</v>
       </c>
       <c r="H213" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I213" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -9439,7 +9442,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F214" t="s">
         <v>595</v>
@@ -9448,10 +9451,10 @@
         <v>785</v>
       </c>
       <c r="H214" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I214" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -9465,7 +9468,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F215" t="s">
         <v>596</v>
@@ -9474,10 +9477,10 @@
         <v>920</v>
       </c>
       <c r="H215" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I215" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -9491,7 +9494,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F216" t="s">
         <v>597</v>
@@ -9503,7 +9506,7 @@
         <v>1016</v>
       </c>
       <c r="I216" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -9517,7 +9520,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F217" t="s">
         <v>598</v>
@@ -9529,7 +9532,7 @@
         <v>1012</v>
       </c>
       <c r="I217" t="s">
-        <v>1125</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -9543,7 +9546,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F218" t="s">
         <v>599</v>
@@ -9555,7 +9558,7 @@
         <v>1012</v>
       </c>
       <c r="I218" t="s">
-        <v>1125</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -9569,7 +9572,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F219" t="s">
         <v>600</v>
@@ -9578,10 +9581,10 @@
         <v>768</v>
       </c>
       <c r="H219" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="I219" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -9595,7 +9598,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F220" t="s">
         <v>601</v>
@@ -9604,10 +9607,10 @@
         <v>771</v>
       </c>
       <c r="H220" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="I220" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -9621,7 +9624,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F221" t="s">
         <v>602</v>
@@ -9630,10 +9633,10 @@
         <v>765</v>
       </c>
       <c r="H221" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I221" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -9647,7 +9650,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F222" t="s">
         <v>603</v>
@@ -9656,10 +9659,10 @@
         <v>923</v>
       </c>
       <c r="H222" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I222" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -9673,7 +9676,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F223" t="s">
         <v>604</v>
@@ -9682,10 +9685,10 @@
         <v>922</v>
       </c>
       <c r="H223" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="I223" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -9699,7 +9702,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F224" t="s">
         <v>605</v>
@@ -9708,10 +9711,10 @@
         <v>771</v>
       </c>
       <c r="H224" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="I224" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -9725,7 +9728,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F225" t="s">
         <v>606</v>
@@ -9734,13 +9737,13 @@
         <v>924</v>
       </c>
       <c r="H225" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="I225" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="J225" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -9754,7 +9757,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F226" t="s">
         <v>607</v>
@@ -9766,7 +9769,7 @@
         <v>1017</v>
       </c>
       <c r="I226" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -9780,7 +9783,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F227" t="s">
         <v>608</v>
@@ -9792,7 +9795,7 @@
         <v>1017</v>
       </c>
       <c r="I227" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -9806,7 +9809,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F228" t="s">
         <v>609</v>
@@ -9818,7 +9821,7 @@
         <v>1017</v>
       </c>
       <c r="I228" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -9832,7 +9835,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F229" t="s">
         <v>610</v>
@@ -9841,13 +9844,13 @@
         <v>771</v>
       </c>
       <c r="H229" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="I229" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="J229" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -9861,7 +9864,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F230" t="s">
         <v>611</v>
@@ -9870,10 +9873,10 @@
         <v>925</v>
       </c>
       <c r="H230" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I230" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -9887,7 +9890,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F231" t="s">
         <v>612</v>
@@ -9896,10 +9899,10 @@
         <v>926</v>
       </c>
       <c r="H231" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="I231" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -9913,7 +9916,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F232" t="s">
         <v>613</v>
@@ -9922,10 +9925,10 @@
         <v>774</v>
       </c>
       <c r="H232" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="I232" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -9939,7 +9942,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F233" t="s">
         <v>614</v>
@@ -9948,13 +9951,13 @@
         <v>927</v>
       </c>
       <c r="H233" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="I233" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="J233" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -9968,7 +9971,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F234" t="s">
         <v>615</v>
@@ -9977,10 +9980,10 @@
         <v>928</v>
       </c>
       <c r="H234" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="I234" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -9994,7 +9997,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F235" t="s">
         <v>616</v>
@@ -10003,10 +10006,10 @@
         <v>929</v>
       </c>
       <c r="H235" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I235" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10020,7 +10023,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F236" t="s">
         <v>617</v>
@@ -10029,10 +10032,10 @@
         <v>831</v>
       </c>
       <c r="H236" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I236" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10046,7 +10049,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F237" t="s">
         <v>618</v>
@@ -10055,10 +10058,10 @@
         <v>802</v>
       </c>
       <c r="H237" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I237" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10072,7 +10075,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F238" t="s">
         <v>619</v>
@@ -10084,7 +10087,7 @@
         <v>1029</v>
       </c>
       <c r="I238" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10098,7 +10101,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F239" t="s">
         <v>620</v>
@@ -10110,7 +10113,7 @@
         <v>1029</v>
       </c>
       <c r="I239" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10124,7 +10127,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F240" t="s">
         <v>621</v>
@@ -10136,7 +10139,7 @@
         <v>1029</v>
       </c>
       <c r="I240" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -10150,7 +10153,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F241" t="s">
         <v>622</v>
@@ -10159,10 +10162,10 @@
         <v>771</v>
       </c>
       <c r="H241" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I241" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -10176,7 +10179,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F242" t="s">
         <v>623</v>
@@ -10185,10 +10188,10 @@
         <v>932</v>
       </c>
       <c r="H242" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="I242" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -10202,7 +10205,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F243" t="s">
         <v>624</v>
@@ -10211,10 +10214,10 @@
         <v>933</v>
       </c>
       <c r="H243" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="I243" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -10228,7 +10231,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F244" t="s">
         <v>625</v>
@@ -10237,10 +10240,10 @@
         <v>934</v>
       </c>
       <c r="H244" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I244" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -10254,7 +10257,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F245" t="s">
         <v>626</v>
@@ -10263,10 +10266,10 @@
         <v>935</v>
       </c>
       <c r="H245" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I245" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -10280,7 +10283,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F246" t="s">
         <v>627</v>
@@ -10289,10 +10292,10 @@
         <v>771</v>
       </c>
       <c r="H246" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I246" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -10306,7 +10309,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F247" t="s">
         <v>628</v>
@@ -10318,7 +10321,7 @@
         <v>1029</v>
       </c>
       <c r="I247" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -10332,7 +10335,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F248" t="s">
         <v>629</v>
@@ -10344,7 +10347,7 @@
         <v>1029</v>
       </c>
       <c r="I248" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -10358,7 +10361,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F249" t="s">
         <v>630</v>
@@ -10367,10 +10370,10 @@
         <v>938</v>
       </c>
       <c r="H249" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="I249" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -10384,7 +10387,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F250" t="s">
         <v>631</v>
@@ -10393,10 +10396,10 @@
         <v>939</v>
       </c>
       <c r="H250" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="I250" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -10410,7 +10413,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F251" t="s">
         <v>632</v>
@@ -10419,10 +10422,10 @@
         <v>940</v>
       </c>
       <c r="H251" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="I251" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -10436,7 +10439,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F252" t="s">
         <v>633</v>
@@ -10445,10 +10448,10 @@
         <v>941</v>
       </c>
       <c r="H252" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I252" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -10462,7 +10465,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F253" t="s">
         <v>634</v>
@@ -10471,10 +10474,10 @@
         <v>942</v>
       </c>
       <c r="H253" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I253" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -10491,7 +10494,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F254" t="s">
         <v>635</v>
@@ -10500,10 +10503,10 @@
         <v>943</v>
       </c>
       <c r="H254" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I254" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -10517,7 +10520,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F255" t="s">
         <v>636</v>
@@ -10526,10 +10529,10 @@
         <v>872</v>
       </c>
       <c r="H255" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I255" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -10543,7 +10546,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F256" t="s">
         <v>637</v>
@@ -10552,10 +10555,10 @@
         <v>816</v>
       </c>
       <c r="H256" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I256" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -10569,7 +10572,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F257" t="s">
         <v>638</v>
@@ -10578,10 +10581,10 @@
         <v>765</v>
       </c>
       <c r="H257" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I257" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -10595,7 +10598,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F258" t="s">
         <v>639</v>
@@ -10604,10 +10607,10 @@
         <v>785</v>
       </c>
       <c r="H258" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I258" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -10621,7 +10624,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F259" t="s">
         <v>640</v>
@@ -10630,10 +10633,10 @@
         <v>935</v>
       </c>
       <c r="H259" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I259" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -10647,7 +10650,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F260" t="s">
         <v>641</v>
@@ -10656,13 +10659,13 @@
         <v>944</v>
       </c>
       <c r="H260" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I260" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J260" t="s">
         <v>1125</v>
-      </c>
-      <c r="J260" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -10676,7 +10679,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F261" t="s">
         <v>642</v>
@@ -10685,13 +10688,13 @@
         <v>945</v>
       </c>
       <c r="H261" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I261" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J261" t="s">
         <v>1125</v>
-      </c>
-      <c r="J261" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -10705,7 +10708,7 @@
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F262" t="s">
         <v>643</v>
@@ -10714,10 +10717,10 @@
         <v>771</v>
       </c>
       <c r="H262" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I262" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -10731,7 +10734,7 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F263" t="s">
         <v>644</v>
@@ -10740,10 +10743,10 @@
         <v>946</v>
       </c>
       <c r="H263" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I263" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -10757,7 +10760,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F264" t="s">
         <v>645</v>
@@ -10766,10 +10769,10 @@
         <v>868</v>
       </c>
       <c r="H264" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I264" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -10783,7 +10786,7 @@
         <v>266</v>
       </c>
       <c r="E265" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F265" t="s">
         <v>646</v>
@@ -10792,13 +10795,13 @@
         <v>947</v>
       </c>
       <c r="H265" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I265" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J265" t="s">
         <v>1125</v>
-      </c>
-      <c r="J265" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -10812,7 +10815,7 @@
         <v>267</v>
       </c>
       <c r="E266" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F266" t="s">
         <v>647</v>
@@ -10821,10 +10824,10 @@
         <v>948</v>
       </c>
       <c r="H266" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I266" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -10838,7 +10841,7 @@
         <v>268</v>
       </c>
       <c r="E267" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F267" t="s">
         <v>648</v>
@@ -10847,10 +10850,10 @@
         <v>949</v>
       </c>
       <c r="H267" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I267" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -10864,7 +10867,7 @@
         <v>269</v>
       </c>
       <c r="E268" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F268" t="s">
         <v>649</v>
@@ -10873,10 +10876,10 @@
         <v>782</v>
       </c>
       <c r="H268" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I268" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -10890,7 +10893,7 @@
         <v>270</v>
       </c>
       <c r="E269" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F269" t="s">
         <v>650</v>
@@ -10899,13 +10902,13 @@
         <v>784</v>
       </c>
       <c r="H269" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I269" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J269" t="s">
         <v>1125</v>
-      </c>
-      <c r="J269" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -10919,7 +10922,7 @@
         <v>271</v>
       </c>
       <c r="E270" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F270" t="s">
         <v>651</v>
@@ -10928,10 +10931,10 @@
         <v>771</v>
       </c>
       <c r="H270" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I270" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -10945,7 +10948,7 @@
         <v>272</v>
       </c>
       <c r="E271" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F271" t="s">
         <v>652</v>
@@ -10954,10 +10957,10 @@
         <v>774</v>
       </c>
       <c r="H271" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I271" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -10971,7 +10974,7 @@
         <v>273</v>
       </c>
       <c r="E272" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F272" t="s">
         <v>653</v>
@@ -10980,10 +10983,10 @@
         <v>774</v>
       </c>
       <c r="H272" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I272" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -10997,7 +11000,7 @@
         <v>274</v>
       </c>
       <c r="E273" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F273" t="s">
         <v>654</v>
@@ -11006,10 +11009,10 @@
         <v>950</v>
       </c>
       <c r="H273" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="I273" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11023,7 +11026,7 @@
         <v>275</v>
       </c>
       <c r="E274" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F274" t="s">
         <v>655</v>
@@ -11032,10 +11035,10 @@
         <v>771</v>
       </c>
       <c r="H274" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I274" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11049,7 +11052,7 @@
         <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F275" t="s">
         <v>656</v>
@@ -11058,10 +11061,10 @@
         <v>951</v>
       </c>
       <c r="H275" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I275" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11075,7 +11078,7 @@
         <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F276" t="s">
         <v>657</v>
@@ -11084,10 +11087,10 @@
         <v>952</v>
       </c>
       <c r="H276" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="I276" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11101,7 +11104,7 @@
         <v>278</v>
       </c>
       <c r="E277" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F277" t="s">
         <v>658</v>
@@ -11110,10 +11113,10 @@
         <v>953</v>
       </c>
       <c r="H277" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I277" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11127,7 +11130,7 @@
         <v>279</v>
       </c>
       <c r="E278" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F278" t="s">
         <v>659</v>
@@ -11136,10 +11139,10 @@
         <v>771</v>
       </c>
       <c r="H278" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="I278" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11153,7 +11156,7 @@
         <v>280</v>
       </c>
       <c r="E279" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F279" t="s">
         <v>660</v>
@@ -11162,10 +11165,10 @@
         <v>774</v>
       </c>
       <c r="H279" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="I279" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11179,7 +11182,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F280" t="s">
         <v>661</v>
@@ -11188,10 +11191,10 @@
         <v>954</v>
       </c>
       <c r="H280" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="I280" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11208,7 +11211,7 @@
         <v>282</v>
       </c>
       <c r="E281" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F281" t="s">
         <v>662</v>
@@ -11217,10 +11220,10 @@
         <v>955</v>
       </c>
       <c r="H281" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="I281" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11234,7 +11237,7 @@
         <v>283</v>
       </c>
       <c r="E282" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F282" t="s">
         <v>663</v>
@@ -11243,10 +11246,10 @@
         <v>956</v>
       </c>
       <c r="H282" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="I282" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -11260,7 +11263,7 @@
         <v>284</v>
       </c>
       <c r="E283" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F283" t="s">
         <v>664</v>
@@ -11269,10 +11272,10 @@
         <v>957</v>
       </c>
       <c r="H283" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I283" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -11286,7 +11289,7 @@
         <v>285</v>
       </c>
       <c r="E284" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F284" t="s">
         <v>665</v>
@@ -11295,10 +11298,10 @@
         <v>765</v>
       </c>
       <c r="H284" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I284" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -11312,7 +11315,7 @@
         <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F285" t="s">
         <v>666</v>
@@ -11321,10 +11324,10 @@
         <v>958</v>
       </c>
       <c r="H285" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I285" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -11338,7 +11341,7 @@
         <v>287</v>
       </c>
       <c r="E286" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F286" t="s">
         <v>667</v>
@@ -11347,10 +11350,10 @@
         <v>959</v>
       </c>
       <c r="H286" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="I286" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -11364,7 +11367,7 @@
         <v>288</v>
       </c>
       <c r="E287" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F287" t="s">
         <v>668</v>
@@ -11373,10 +11376,10 @@
         <v>960</v>
       </c>
       <c r="H287" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="I287" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -11390,7 +11393,7 @@
         <v>289</v>
       </c>
       <c r="E288" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F288" t="s">
         <v>669</v>
@@ -11399,10 +11402,10 @@
         <v>961</v>
       </c>
       <c r="H288" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="I288" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -11416,7 +11419,7 @@
         <v>290</v>
       </c>
       <c r="E289" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F289" t="s">
         <v>670</v>
@@ -11425,10 +11428,10 @@
         <v>962</v>
       </c>
       <c r="H289" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I289" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -11442,7 +11445,7 @@
         <v>291</v>
       </c>
       <c r="E290" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F290" t="s">
         <v>671</v>
@@ -11451,10 +11454,10 @@
         <v>963</v>
       </c>
       <c r="H290" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I290" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -11468,7 +11471,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F291" t="s">
         <v>672</v>
@@ -11477,10 +11480,10 @@
         <v>822</v>
       </c>
       <c r="H291" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I291" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -11494,7 +11497,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F292" t="s">
         <v>673</v>
@@ -11503,10 +11506,10 @@
         <v>862</v>
       </c>
       <c r="H292" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I292" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -11523,7 +11526,7 @@
         <v>294</v>
       </c>
       <c r="E293" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F293" t="s">
         <v>674</v>
@@ -11532,10 +11535,10 @@
         <v>927</v>
       </c>
       <c r="H293" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I293" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -11549,7 +11552,7 @@
         <v>295</v>
       </c>
       <c r="E294" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F294" t="s">
         <v>675</v>
@@ -11558,10 +11561,10 @@
         <v>922</v>
       </c>
       <c r="H294" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I294" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -11575,7 +11578,7 @@
         <v>296</v>
       </c>
       <c r="E295" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F295" t="s">
         <v>676</v>
@@ -11584,10 +11587,10 @@
         <v>765</v>
       </c>
       <c r="H295" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I295" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -11601,7 +11604,7 @@
         <v>297</v>
       </c>
       <c r="E296" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F296" t="s">
         <v>677</v>
@@ -11610,10 +11613,10 @@
         <v>931</v>
       </c>
       <c r="H296" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I296" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -11627,7 +11630,7 @@
         <v>298</v>
       </c>
       <c r="E297" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F297" t="s">
         <v>678</v>
@@ -11636,13 +11639,13 @@
         <v>964</v>
       </c>
       <c r="H297" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I297" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J297" t="s">
         <v>1125</v>
-      </c>
-      <c r="J297" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -11656,7 +11659,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F298" t="s">
         <v>679</v>
@@ -11665,13 +11668,13 @@
         <v>965</v>
       </c>
       <c r="H298" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I298" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J298" t="s">
         <v>1125</v>
-      </c>
-      <c r="J298" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -11685,7 +11688,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F299" t="s">
         <v>680</v>
@@ -11694,13 +11697,13 @@
         <v>785</v>
       </c>
       <c r="H299" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I299" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J299" t="s">
         <v>1125</v>
-      </c>
-      <c r="J299" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -11714,7 +11717,7 @@
         <v>301</v>
       </c>
       <c r="E300" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F300" t="s">
         <v>681</v>
@@ -11723,10 +11726,10 @@
         <v>966</v>
       </c>
       <c r="H300" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I300" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -11740,7 +11743,7 @@
         <v>302</v>
       </c>
       <c r="E301" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F301" t="s">
         <v>682</v>
@@ -11749,10 +11752,10 @@
         <v>967</v>
       </c>
       <c r="H301" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I301" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -11766,7 +11769,7 @@
         <v>303</v>
       </c>
       <c r="E302" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F302" t="s">
         <v>683</v>
@@ -11775,10 +11778,10 @@
         <v>771</v>
       </c>
       <c r="H302" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I302" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -11792,7 +11795,7 @@
         <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F303" t="s">
         <v>684</v>
@@ -11801,10 +11804,10 @@
         <v>935</v>
       </c>
       <c r="H303" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I303" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -11818,7 +11821,7 @@
         <v>305</v>
       </c>
       <c r="E304" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F304" t="s">
         <v>685</v>
@@ -11827,10 +11830,10 @@
         <v>771</v>
       </c>
       <c r="H304" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I304" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -11844,7 +11847,7 @@
         <v>306</v>
       </c>
       <c r="E305" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F305" t="s">
         <v>686</v>
@@ -11853,10 +11856,10 @@
         <v>922</v>
       </c>
       <c r="H305" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I305" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -11873,7 +11876,7 @@
         <v>307</v>
       </c>
       <c r="E306" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F306" t="s">
         <v>687</v>
@@ -11882,10 +11885,10 @@
         <v>968</v>
       </c>
       <c r="H306" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I306" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -11902,7 +11905,7 @@
         <v>308</v>
       </c>
       <c r="E307" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F307" t="s">
         <v>688</v>
@@ -11911,10 +11914,10 @@
         <v>969</v>
       </c>
       <c r="H307" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I307" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -11931,7 +11934,7 @@
         <v>309</v>
       </c>
       <c r="E308" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F308" t="s">
         <v>689</v>
@@ -11940,10 +11943,10 @@
         <v>970</v>
       </c>
       <c r="H308" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I308" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -11957,7 +11960,7 @@
         <v>310</v>
       </c>
       <c r="E309" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F309" t="s">
         <v>690</v>
@@ -11966,10 +11969,10 @@
         <v>971</v>
       </c>
       <c r="H309" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="I309" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -11983,7 +11986,7 @@
         <v>311</v>
       </c>
       <c r="E310" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F310" t="s">
         <v>691</v>
@@ -11992,10 +11995,10 @@
         <v>972</v>
       </c>
       <c r="H310" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="I310" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12009,7 +12012,7 @@
         <v>312</v>
       </c>
       <c r="E311" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F311" t="s">
         <v>692</v>
@@ -12018,10 +12021,10 @@
         <v>973</v>
       </c>
       <c r="H311" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I311" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12035,7 +12038,7 @@
         <v>313</v>
       </c>
       <c r="E312" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F312" t="s">
         <v>693</v>
@@ -12044,10 +12047,10 @@
         <v>974</v>
       </c>
       <c r="H312" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I312" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12061,7 +12064,7 @@
         <v>314</v>
       </c>
       <c r="E313" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F313" t="s">
         <v>694</v>
@@ -12070,10 +12073,10 @@
         <v>828</v>
       </c>
       <c r="H313" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I313" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12087,7 +12090,7 @@
         <v>315</v>
       </c>
       <c r="E314" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F314" t="s">
         <v>695</v>
@@ -12096,10 +12099,10 @@
         <v>771</v>
       </c>
       <c r="H314" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I314" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12113,7 +12116,7 @@
         <v>316</v>
       </c>
       <c r="E315" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F315" t="s">
         <v>696</v>
@@ -12122,10 +12125,10 @@
         <v>771</v>
       </c>
       <c r="H315" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I315" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12139,7 +12142,7 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F316" t="s">
         <v>697</v>
@@ -12148,10 +12151,10 @@
         <v>771</v>
       </c>
       <c r="H316" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I316" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12165,7 +12168,7 @@
         <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F317" t="s">
         <v>698</v>
@@ -12174,10 +12177,10 @@
         <v>975</v>
       </c>
       <c r="H317" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I317" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12191,7 +12194,7 @@
         <v>319</v>
       </c>
       <c r="E318" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F318" t="s">
         <v>699</v>
@@ -12200,10 +12203,10 @@
         <v>976</v>
       </c>
       <c r="H318" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I318" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12217,7 +12220,7 @@
         <v>320</v>
       </c>
       <c r="E319" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F319" t="s">
         <v>700</v>
@@ -12226,10 +12229,10 @@
         <v>977</v>
       </c>
       <c r="H319" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I319" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12243,7 +12246,7 @@
         <v>321</v>
       </c>
       <c r="E320" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F320" t="s">
         <v>701</v>
@@ -12252,10 +12255,10 @@
         <v>828</v>
       </c>
       <c r="H320" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I320" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12269,7 +12272,7 @@
         <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F321" t="s">
         <v>702</v>
@@ -12278,10 +12281,10 @@
         <v>828</v>
       </c>
       <c r="H321" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I321" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12295,7 +12298,7 @@
         <v>323</v>
       </c>
       <c r="E322" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F322" t="s">
         <v>703</v>
@@ -12304,10 +12307,10 @@
         <v>978</v>
       </c>
       <c r="H322" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I322" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12321,7 +12324,7 @@
         <v>324</v>
       </c>
       <c r="E323" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F323" t="s">
         <v>704</v>
@@ -12330,10 +12333,10 @@
         <v>979</v>
       </c>
       <c r="H323" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I323" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12347,7 +12350,7 @@
         <v>325</v>
       </c>
       <c r="E324" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F324" t="s">
         <v>705</v>
@@ -12356,10 +12359,10 @@
         <v>980</v>
       </c>
       <c r="H324" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I324" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12373,7 +12376,7 @@
         <v>326</v>
       </c>
       <c r="E325" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F325" t="s">
         <v>706</v>
@@ -12382,10 +12385,10 @@
         <v>981</v>
       </c>
       <c r="H325" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I325" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -12399,7 +12402,7 @@
         <v>327</v>
       </c>
       <c r="E326" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F326" t="s">
         <v>707</v>
@@ -12408,10 +12411,10 @@
         <v>821</v>
       </c>
       <c r="H326" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I326" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -12425,7 +12428,7 @@
         <v>328</v>
       </c>
       <c r="E327" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F327" t="s">
         <v>708</v>
@@ -12434,10 +12437,10 @@
         <v>982</v>
       </c>
       <c r="H327" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I327" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -12451,7 +12454,7 @@
         <v>329</v>
       </c>
       <c r="E328" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F328" t="s">
         <v>709</v>
@@ -12460,10 +12463,10 @@
         <v>765</v>
       </c>
       <c r="H328" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I328" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -12477,7 +12480,7 @@
         <v>330</v>
       </c>
       <c r="E329" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F329" t="s">
         <v>710</v>
@@ -12486,10 +12489,10 @@
         <v>983</v>
       </c>
       <c r="H329" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I329" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -12503,7 +12506,7 @@
         <v>331</v>
       </c>
       <c r="E330" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F330" t="s">
         <v>711</v>
@@ -12512,10 +12515,10 @@
         <v>984</v>
       </c>
       <c r="H330" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I330" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -12529,7 +12532,7 @@
         <v>332</v>
       </c>
       <c r="E331" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F331" t="s">
         <v>712</v>
@@ -12538,10 +12541,10 @@
         <v>828</v>
       </c>
       <c r="H331" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I331" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -12555,7 +12558,7 @@
         <v>333</v>
       </c>
       <c r="E332" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F332" t="s">
         <v>713</v>
@@ -12564,10 +12567,10 @@
         <v>985</v>
       </c>
       <c r="H332" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I332" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -12581,7 +12584,7 @@
         <v>334</v>
       </c>
       <c r="E333" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F333" t="s">
         <v>714</v>
@@ -12590,10 +12593,10 @@
         <v>986</v>
       </c>
       <c r="H333" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I333" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -12607,7 +12610,7 @@
         <v>335</v>
       </c>
       <c r="E334" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F334" t="s">
         <v>715</v>
@@ -12616,10 +12619,10 @@
         <v>771</v>
       </c>
       <c r="H334" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I334" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -12633,7 +12636,7 @@
         <v>336</v>
       </c>
       <c r="E335" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F335" t="s">
         <v>716</v>
@@ -12642,10 +12645,10 @@
         <v>771</v>
       </c>
       <c r="H335" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I335" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -12659,7 +12662,7 @@
         <v>337</v>
       </c>
       <c r="E336" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F336" t="s">
         <v>717</v>
@@ -12668,10 +12671,10 @@
         <v>765</v>
       </c>
       <c r="H336" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I336" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -12688,7 +12691,7 @@
         <v>338</v>
       </c>
       <c r="E337" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F337" t="s">
         <v>718</v>
@@ -12697,10 +12700,10 @@
         <v>987</v>
       </c>
       <c r="H337" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I337" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -12717,7 +12720,7 @@
         <v>339</v>
       </c>
       <c r="E338" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F338" t="s">
         <v>719</v>
@@ -12726,10 +12729,10 @@
         <v>988</v>
       </c>
       <c r="H338" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I338" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -12746,7 +12749,7 @@
         <v>340</v>
       </c>
       <c r="E339" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F339" t="s">
         <v>720</v>
@@ -12755,10 +12758,10 @@
         <v>828</v>
       </c>
       <c r="H339" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I339" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -12775,7 +12778,7 @@
         <v>341</v>
       </c>
       <c r="E340" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F340" t="s">
         <v>721</v>
@@ -12784,10 +12787,10 @@
         <v>989</v>
       </c>
       <c r="H340" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I340" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -12804,7 +12807,7 @@
         <v>342</v>
       </c>
       <c r="E341" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F341" t="s">
         <v>722</v>
@@ -12813,10 +12816,10 @@
         <v>990</v>
       </c>
       <c r="H341" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="I341" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -12833,7 +12836,7 @@
         <v>343</v>
       </c>
       <c r="E342" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F342" t="s">
         <v>723</v>
@@ -12842,10 +12845,10 @@
         <v>771</v>
       </c>
       <c r="H342" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="I342" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -12862,7 +12865,7 @@
         <v>344</v>
       </c>
       <c r="E343" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F343" t="s">
         <v>724</v>
@@ -12871,10 +12874,10 @@
         <v>991</v>
       </c>
       <c r="H343" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="I343" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -12891,7 +12894,7 @@
         <v>345</v>
       </c>
       <c r="E344" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F344" t="s">
         <v>725</v>
@@ -12900,10 +12903,10 @@
         <v>992</v>
       </c>
       <c r="H344" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="I344" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -12917,7 +12920,7 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F345" t="s">
         <v>726</v>
@@ -12926,10 +12929,10 @@
         <v>768</v>
       </c>
       <c r="H345" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I345" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -12943,7 +12946,7 @@
         <v>347</v>
       </c>
       <c r="E346" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F346" t="s">
         <v>727</v>
@@ -12952,10 +12955,10 @@
         <v>771</v>
       </c>
       <c r="H346" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I346" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -12969,7 +12972,7 @@
         <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F347" t="s">
         <v>728</v>
@@ -12978,10 +12981,10 @@
         <v>771</v>
       </c>
       <c r="H347" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I347" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -12995,7 +12998,7 @@
         <v>349</v>
       </c>
       <c r="E348" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F348" t="s">
         <v>729</v>
@@ -13004,10 +13007,10 @@
         <v>771</v>
       </c>
       <c r="H348" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I348" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13021,7 +13024,7 @@
         <v>350</v>
       </c>
       <c r="E349" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F349" t="s">
         <v>730</v>
@@ -13030,10 +13033,10 @@
         <v>771</v>
       </c>
       <c r="H349" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I349" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13047,7 +13050,7 @@
         <v>351</v>
       </c>
       <c r="E350" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F350" t="s">
         <v>731</v>
@@ -13056,10 +13059,10 @@
         <v>771</v>
       </c>
       <c r="H350" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I350" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13073,7 +13076,7 @@
         <v>352</v>
       </c>
       <c r="E351" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F351" t="s">
         <v>732</v>
@@ -13082,10 +13085,10 @@
         <v>771</v>
       </c>
       <c r="H351" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I351" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13099,7 +13102,7 @@
         <v>353</v>
       </c>
       <c r="E352" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F352" t="s">
         <v>733</v>
@@ -13108,10 +13111,10 @@
         <v>771</v>
       </c>
       <c r="H352" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I352" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -13125,7 +13128,7 @@
         <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F353" t="s">
         <v>734</v>
@@ -13134,10 +13137,10 @@
         <v>993</v>
       </c>
       <c r="H353" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="I353" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -13151,7 +13154,7 @@
         <v>355</v>
       </c>
       <c r="E354" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F354" t="s">
         <v>735</v>
@@ -13160,10 +13163,10 @@
         <v>994</v>
       </c>
       <c r="H354" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="I354" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -13177,7 +13180,7 @@
         <v>356</v>
       </c>
       <c r="E355" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F355" t="s">
         <v>736</v>
@@ -13186,10 +13189,10 @@
         <v>774</v>
       </c>
       <c r="H355" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="I355" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -13203,7 +13206,7 @@
         <v>357</v>
       </c>
       <c r="E356" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F356" t="s">
         <v>737</v>
@@ -13212,10 +13215,10 @@
         <v>995</v>
       </c>
       <c r="H356" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="I356" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -13229,7 +13232,7 @@
         <v>358</v>
       </c>
       <c r="E357" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F357" t="s">
         <v>738</v>
@@ -13238,10 +13241,10 @@
         <v>922</v>
       </c>
       <c r="H357" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="I357" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -13255,7 +13258,7 @@
         <v>359</v>
       </c>
       <c r="E358" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F358" t="s">
         <v>739</v>
@@ -13264,10 +13267,10 @@
         <v>996</v>
       </c>
       <c r="H358" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="I358" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -13281,16 +13284,16 @@
         <v>360</v>
       </c>
       <c r="E359" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F359" t="s">
         <v>740</v>
       </c>
       <c r="H359" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="I359" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -13304,7 +13307,7 @@
         <v>361</v>
       </c>
       <c r="E360" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F360" t="s">
         <v>741</v>
@@ -13313,10 +13316,10 @@
         <v>997</v>
       </c>
       <c r="H360" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="I360" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -13330,7 +13333,7 @@
         <v>362</v>
       </c>
       <c r="E361" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F361" t="s">
         <v>742</v>
@@ -13339,10 +13342,10 @@
         <v>998</v>
       </c>
       <c r="H361" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I361" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -13356,7 +13359,7 @@
         <v>363</v>
       </c>
       <c r="E362" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F362" t="s">
         <v>743</v>
@@ -13365,10 +13368,10 @@
         <v>999</v>
       </c>
       <c r="H362" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I362" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -13382,7 +13385,7 @@
         <v>364</v>
       </c>
       <c r="E363" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F363" t="s">
         <v>744</v>
@@ -13391,10 +13394,10 @@
         <v>1000</v>
       </c>
       <c r="H363" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I363" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -13408,7 +13411,7 @@
         <v>365</v>
       </c>
       <c r="E364" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F364" t="s">
         <v>745</v>
@@ -13417,10 +13420,10 @@
         <v>1001</v>
       </c>
       <c r="H364" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I364" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -13434,7 +13437,7 @@
         <v>366</v>
       </c>
       <c r="E365" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F365" t="s">
         <v>746</v>
@@ -13443,10 +13446,10 @@
         <v>1002</v>
       </c>
       <c r="H365" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I365" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -13460,7 +13463,7 @@
         <v>367</v>
       </c>
       <c r="E366" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F366" t="s">
         <v>747</v>
@@ -13469,10 +13472,10 @@
         <v>765</v>
       </c>
       <c r="H366" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I366" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -13486,7 +13489,7 @@
         <v>368</v>
       </c>
       <c r="E367" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F367" t="s">
         <v>748</v>
@@ -13495,10 +13498,10 @@
         <v>765</v>
       </c>
       <c r="H367" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I367" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -13512,7 +13515,7 @@
         <v>369</v>
       </c>
       <c r="E368" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F368" t="s">
         <v>749</v>
@@ -13521,10 +13524,10 @@
         <v>1003</v>
       </c>
       <c r="H368" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I368" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
@@ -13538,7 +13541,7 @@
         <v>370</v>
       </c>
       <c r="E369" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F369" t="s">
         <v>750</v>
@@ -13547,10 +13550,10 @@
         <v>1004</v>
       </c>
       <c r="H369" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I369" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
@@ -13564,7 +13567,7 @@
         <v>371</v>
       </c>
       <c r="E370" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F370" t="s">
         <v>751</v>
@@ -13573,16 +13576,16 @@
         <v>1005</v>
       </c>
       <c r="H370" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I370" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K370" t="s">
         <v>1104</v>
       </c>
-      <c r="I370" t="s">
-        <v>1125</v>
-      </c>
-      <c r="K370" t="s">
-        <v>1105</v>
-      </c>
       <c r="L370" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
@@ -13596,7 +13599,7 @@
         <v>372</v>
       </c>
       <c r="E371" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F371" t="s">
         <v>752</v>
@@ -13605,10 +13608,10 @@
         <v>771</v>
       </c>
       <c r="H371" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I371" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
@@ -13622,7 +13625,7 @@
         <v>373</v>
       </c>
       <c r="E372" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F372" t="s">
         <v>753</v>
@@ -13631,10 +13634,10 @@
         <v>771</v>
       </c>
       <c r="H372" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I372" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
@@ -13648,7 +13651,7 @@
         <v>374</v>
       </c>
       <c r="E373" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F373" t="s">
         <v>754</v>
@@ -13657,10 +13660,10 @@
         <v>1006</v>
       </c>
       <c r="H373" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I373" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
@@ -13674,7 +13677,7 @@
         <v>375</v>
       </c>
       <c r="E374" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F374" t="s">
         <v>755</v>
@@ -13683,10 +13686,10 @@
         <v>935</v>
       </c>
       <c r="H374" t="s">
-        <v>1106</v>
+        <v>1157</v>
       </c>
       <c r="I374" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
@@ -13700,7 +13703,7 @@
         <v>376</v>
       </c>
       <c r="E375" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F375" t="s">
         <v>756</v>
@@ -13709,10 +13712,10 @@
         <v>771</v>
       </c>
       <c r="H375" t="s">
-        <v>1106</v>
+        <v>1157</v>
       </c>
       <c r="I375" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
@@ -13726,7 +13729,7 @@
         <v>377</v>
       </c>
       <c r="E376" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F376" t="s">
         <v>757</v>
@@ -13735,10 +13738,10 @@
         <v>1007</v>
       </c>
       <c r="H376" t="s">
-        <v>1106</v>
+        <v>1157</v>
       </c>
       <c r="I376" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
@@ -13752,7 +13755,7 @@
         <v>378</v>
       </c>
       <c r="E377" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F377" t="s">
         <v>758</v>
@@ -13761,10 +13764,10 @@
         <v>765</v>
       </c>
       <c r="H377" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="I377" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
@@ -13778,7 +13781,7 @@
         <v>379</v>
       </c>
       <c r="E378" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F378" t="s">
         <v>759</v>
@@ -13787,10 +13790,10 @@
         <v>1008</v>
       </c>
       <c r="H378" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="I378" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
@@ -13804,7 +13807,7 @@
         <v>380</v>
       </c>
       <c r="E379" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F379" t="s">
         <v>760</v>
@@ -13813,10 +13816,10 @@
         <v>774</v>
       </c>
       <c r="H379" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="I379" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
@@ -13830,7 +13833,7 @@
         <v>381</v>
       </c>
       <c r="E380" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F380" t="s">
         <v>761</v>
@@ -13839,10 +13842,10 @@
         <v>988</v>
       </c>
       <c r="H380" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="I380" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
@@ -13856,7 +13859,7 @@
         <v>382</v>
       </c>
       <c r="E381" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F381" t="s">
         <v>762</v>
@@ -13865,10 +13868,10 @@
         <v>1009</v>
       </c>
       <c r="H381" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="I381" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
@@ -13882,7 +13885,7 @@
         <v>383</v>
       </c>
       <c r="E382" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F382" t="s">
         <v>763</v>
@@ -13891,10 +13894,10 @@
         <v>1010</v>
       </c>
       <c r="H382" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="I382" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
@@ -13908,7 +13911,7 @@
         <v>384</v>
       </c>
       <c r="E383" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F383" t="s">
         <v>764</v>
@@ -13917,10 +13920,10 @@
         <v>1011</v>
       </c>
       <c r="H383" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="I383" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
   </sheetData>
